--- a/Jogos_da_Semana_FlashScore_2025-05-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-12.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ61"/>
+  <dimension ref="A1:AJ62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
         <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="J2" t="n">
         <v>1.08</v>
@@ -689,19 +689,19 @@
         <v>8.5</v>
       </c>
       <c r="U2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="V2" t="n">
         <v>11</v>
       </c>
       <c r="W2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X2" t="n">
         <v>26</v>
       </c>
       <c r="Y2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Z2" t="n">
         <v>8</v>
@@ -775,13 +775,13 @@
         <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L3" t="n">
         <v>1.25</v>
@@ -790,25 +790,25 @@
         <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="P3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U3" t="n">
         <v>10</v>
@@ -838,13 +838,13 @@
         <v>41</v>
       </c>
       <c r="AD3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE3" t="n">
         <v>12</v>
       </c>
       <c r="AF3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG3" t="n">
         <v>13</v>
@@ -862,7 +862,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MwZsXn77</t>
+          <t>Icz8BjTq</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -872,117 +872,59 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>NETHERLANDS - EREDIVISIE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K4" t="n">
-        <v>10</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T4" t="n">
-        <v>5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="V4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W4" t="n">
-        <v>8</v>
-      </c>
-      <c r="X4" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>126</v>
-      </c>
+          <t>Cambuur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>126</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>81</v>
-      </c>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UyAtr7dB</t>
+          <t>MwZsXn77</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -992,117 +934,117 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ARGENTINA - PRIMERA NACIONAL</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>All Boys</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Deportivo Maipu</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.25</v>
+        <v>1.33</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>3.3</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="K5" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.62</v>
+        <v>1.33</v>
       </c>
       <c r="M5" t="n">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="N5" t="n">
-        <v>2.88</v>
+        <v>2.08</v>
       </c>
       <c r="O5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P5" t="n">
         <v>1.4</v>
       </c>
-      <c r="P5" t="n">
-        <v>1.62</v>
-      </c>
       <c r="Q5" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="R5" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="S5" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="T5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W5" t="n">
-        <v>21</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
         <v>41</v>
       </c>
       <c r="Z5" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="AB5" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AH5" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="AJ5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>M7SmxxQk</t>
+          <t>UyAtr7dB</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1112,7 +1054,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1122,107 +1064,107 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>All Boys</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Def. de Belgrano</t>
+          <t>Deportivo Maipu</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="H6" t="n">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="J6" t="n">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="K6" t="n">
-        <v>4.33</v>
+        <v>6.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="M6" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="N6" t="n">
-        <v>3.6</v>
+        <v>2.88</v>
       </c>
       <c r="O6" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.03</v>
+        <v>2.2</v>
       </c>
       <c r="R6" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="S6" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="T6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W6" t="n">
+        <v>21</v>
+      </c>
+      <c r="X6" t="n">
         <v>23</v>
       </c>
-      <c r="X6" t="n">
-        <v>29</v>
-      </c>
       <c r="Y6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z6" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="AA6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC6" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF6" t="n">
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
         <v>41</v>
       </c>
       <c r="AI6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>U9m9qKXF</t>
+          <t>M7SmxxQk</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1232,7 +1174,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1242,95 +1184,95 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Central Norte</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>San Telmo</t>
+          <t>Def. de Belgrano</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M7" t="n">
         <v>2</v>
       </c>
-      <c r="H7" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="N7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T7" t="n">
+        <v>5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>12</v>
+      </c>
+      <c r="W7" t="n">
+        <v>23</v>
+      </c>
+      <c r="X7" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z7" t="n">
         <v>4.5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="K7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T7" t="n">
-        <v>6</v>
-      </c>
-      <c r="U7" t="n">
-        <v>8</v>
-      </c>
-      <c r="V7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W7" t="n">
-        <v>17</v>
-      </c>
-      <c r="X7" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>6.5</v>
       </c>
       <c r="AA7" t="n">
         <v>6</v>
       </c>
       <c r="AB7" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AC7" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AF7" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI7" t="n">
         <v>41</v>
@@ -1342,7 +1284,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>rXVzAGRN</t>
+          <t>U9m9qKXF</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1352,59 +1294,117 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BELARUS - VYSSHAYA LIGA</t>
+          <t>ARGENTINA - PRIMERA NACIONAL</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Naftan</t>
+          <t>Central Norte</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Zhodino</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
+          <t>San Telmo</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T8" t="n">
+        <v>6</v>
+      </c>
+      <c r="U8" t="n">
+        <v>8</v>
+      </c>
+      <c r="V8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W8" t="n">
+        <v>17</v>
+      </c>
+      <c r="X8" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>67</v>
+      </c>
       <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
+      <c r="AE8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>hbRoScsh</t>
+          <t>rXVzAGRN</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Slavia Mozyr</t>
+          <t>Naftan</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ML Vitebsk</t>
+          <t>Zhodino</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -1466,7 +1466,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>WIuDCaF5</t>
+          <t>hbRoScsh</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1476,119 +1476,59 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BELARUS - VYSSHAYA LIGA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Slavia Mozyr</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ceara</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="T10" t="n">
-        <v>6</v>
-      </c>
-      <c r="U10" t="n">
-        <v>8</v>
-      </c>
-      <c r="V10" t="n">
-        <v>9</v>
-      </c>
-      <c r="W10" t="n">
-        <v>15</v>
-      </c>
-      <c r="X10" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>451</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>41</v>
-      </c>
+          <t>ML Vitebsk</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jB69coIM</t>
+          <t>WIuDCaF5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1598,119 +1538,119 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE C</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Itabaiana</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Figueirense</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.55</v>
+        <v>1.9</v>
       </c>
       <c r="H11" t="n">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>2.9</v>
+        <v>4.33</v>
       </c>
       <c r="J11" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K11" t="n">
-        <v>6.1</v>
+        <v>8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M11" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="N11" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P11" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q11" t="n">
         <v>2.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="S11" t="n">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="T11" t="n">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="U11" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="V11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W11" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="X11" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z11" t="n">
-        <v>6.1</v>
+        <v>7.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>14.5</v>
+        <v>19</v>
       </c>
       <c r="AC11" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AD11" t="n">
-        <v>700</v>
+        <v>451</v>
       </c>
       <c r="AE11" t="n">
-        <v>7.7</v>
+        <v>10</v>
       </c>
       <c r="AF11" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AG11" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="AI11" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="AJ11" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ghjlj3Ad</t>
+          <t>jB69coIM</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1730,100 +1670,100 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Itabaiana</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Figueirense</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H12" t="n">
-        <v>2.52</v>
+        <v>2.92</v>
       </c>
       <c r="I12" t="n">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="J12" t="n">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="K12" t="n">
-        <v>5.1</v>
+        <v>6.1</v>
       </c>
       <c r="L12" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="M12" t="n">
-        <v>2.42</v>
+        <v>2.72</v>
       </c>
       <c r="N12" t="n">
-        <v>2.42</v>
+        <v>2.18</v>
       </c>
       <c r="O12" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="P12" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.32</v>
+        <v>2.55</v>
       </c>
       <c r="R12" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="S12" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="T12" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="U12" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="V12" t="n">
-        <v>10.25</v>
+        <v>9</v>
       </c>
       <c r="W12" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="X12" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="Y12" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Z12" t="n">
-        <v>5.1</v>
+        <v>6.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="AB12" t="n">
         <v>14</v>
       </c>
       <c r="AC12" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AD12" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="AE12" t="n">
-        <v>7.1</v>
+        <v>8</v>
       </c>
       <c r="AF12" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ12" t="n">
         <v>40</v>
@@ -1832,7 +1772,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UFn1xJbt</t>
+          <t>Ghjlj3Ad</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1842,59 +1782,119 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>BULGARIA - VTORA LIGA</t>
+          <t>BRAZIL - SERIE C</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Fratria</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia II</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="K13" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T13" t="n">
+        <v>7</v>
+      </c>
+      <c r="U13" t="n">
+        <v>14</v>
+      </c>
+      <c r="V13" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="W13" t="n">
+        <v>40</v>
+      </c>
+      <c r="X13" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>lbM7IO77</t>
+          <t>UFn1xJbt</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1914,12 +1914,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Yantra Gabrovo</t>
+          <t>Fratria</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Belasitsa</t>
+          <t>CSKA 1948 Sofia II</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -1956,7 +1956,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>h82932MU</t>
+          <t>lbM7IO77</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1966,115 +1966,59 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA B</t>
+          <t>BULGARIA - VTORA LIGA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Real Santander</t>
+          <t>Yantra Gabrovo</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Inter Palmira</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.47</v>
-      </c>
+          <t>Belasitsa</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="T15" t="n">
-        <v>8</v>
-      </c>
-      <c r="U15" t="n">
-        <v>14</v>
-      </c>
-      <c r="V15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="W15" t="n">
-        <v>35</v>
-      </c>
-      <c r="X15" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>75</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>700</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>35</v>
-      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dxsA7EYo</t>
+          <t>h82932MU</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2084,7 +2028,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2094,103 +2038,105 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Real Cundinamarca</t>
+          <t>Real Santander</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Huila</t>
+          <t>Inter Palmira</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.15</v>
+        <v>2.35</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="P16" t="n">
         <v>1.47</v>
       </c>
-      <c r="M16" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="N16" t="n">
+      <c r="Q16" t="n">
         <v>2.32</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.12</v>
-      </c>
       <c r="R16" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="S16" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="T16" t="n">
-        <v>6.5</v>
+        <v>8.25</v>
       </c>
       <c r="U16" t="n">
+        <v>15</v>
+      </c>
+      <c r="V16" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="W16" t="n">
+        <v>40</v>
+      </c>
+      <c r="X16" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF16" t="n">
         <v>11</v>
       </c>
-      <c r="V16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W16" t="n">
-        <v>26</v>
-      </c>
-      <c r="X16" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>15</v>
-      </c>
       <c r="AG16" t="n">
-        <v>11.75</v>
+        <v>9.25</v>
       </c>
       <c r="AH16" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="AI16" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="AJ16" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2wx3CGDs</t>
+          <t>dxsA7EYo</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2200,119 +2146,113 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CYPRUS - CYPRUS LEAGUE</t>
+          <t>COLOMBIA - PRIMERA B</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Real Cundinamarca</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Apollon</t>
+          <t>Huila</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.62</v>
+        <v>2.4</v>
       </c>
       <c r="H17" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="I17" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K17" t="n">
-        <v>7.9</v>
-      </c>
+        <v>3.15</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>1.3</v>
+        <v>1.47</v>
       </c>
       <c r="M17" t="n">
-        <v>3.35</v>
+        <v>2.35</v>
       </c>
       <c r="N17" t="n">
-        <v>1.87</v>
+        <v>2.32</v>
       </c>
       <c r="O17" t="n">
-        <v>1.87</v>
+        <v>1.47</v>
       </c>
       <c r="P17" t="n">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.75</v>
+        <v>2.12</v>
       </c>
       <c r="R17" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S17" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="T17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U17" t="n">
+        <v>11</v>
+      </c>
+      <c r="V17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W17" t="n">
+        <v>26</v>
+      </c>
+      <c r="X17" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z17" t="n">
         <v>6.4</v>
       </c>
-      <c r="U17" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="V17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="X17" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>7.9</v>
-      </c>
       <c r="AA17" t="n">
-        <v>7.7</v>
+        <v>5.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AC17" t="n">
         <v>100</v>
       </c>
-      <c r="AD17" t="n">
-        <v>800</v>
-      </c>
+      <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="n">
-        <v>13</v>
+        <v>7.2</v>
       </c>
       <c r="AF17" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>11.75</v>
       </c>
       <c r="AH17" t="n">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="AI17" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AJ17" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>OhQBAfrf</t>
+          <t>2wx3CGDs</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2332,109 +2272,109 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>APOEL</t>
+          <t>AEK Larnaca</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Pafos</t>
+          <t>Apollon</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.05</v>
+        <v>1.62</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I18" t="n">
-        <v>2.25</v>
+        <v>5.3</v>
       </c>
       <c r="J18" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K18" t="n">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="L18" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="M18" t="n">
-        <v>3.05</v>
+        <v>3.35</v>
       </c>
       <c r="N18" t="n">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="O18" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="P18" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.82</v>
+        <v>2.75</v>
       </c>
       <c r="R18" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S18" t="n">
         <v>1.82</v>
       </c>
-      <c r="S18" t="n">
-        <v>1.9</v>
-      </c>
       <c r="T18" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="U18" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="V18" t="n">
         <v>8.5</v>
       </c>
-      <c r="U18" t="n">
-        <v>16</v>
-      </c>
-      <c r="V18" t="n">
-        <v>11.75</v>
-      </c>
       <c r="W18" t="n">
-        <v>40</v>
+        <v>12.5</v>
       </c>
       <c r="X18" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y18" t="n">
         <v>30</v>
       </c>
-      <c r="Y18" t="n">
-        <v>40</v>
-      </c>
       <c r="Z18" t="n">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="AA18" t="n">
-        <v>6.8</v>
+        <v>7.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AD18" t="n">
         <v>800</v>
       </c>
       <c r="AE18" t="n">
-        <v>7.3</v>
+        <v>13</v>
       </c>
       <c r="AF18" t="n">
-        <v>11.25</v>
+        <v>32</v>
       </c>
       <c r="AG18" t="n">
-        <v>9.75</v>
+        <v>18</v>
       </c>
       <c r="AH18" t="n">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="AI18" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AJ18" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>nDWXHxjK</t>
+          <t>OhQBAfrf</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2454,109 +2394,109 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Aris</t>
+          <t>APOEL</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Pafos</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.87</v>
+        <v>3.05</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>3.9</v>
+        <v>2.25</v>
       </c>
       <c r="J19" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T19" t="n">
         <v>8.5</v>
       </c>
-      <c r="L19" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="O19" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T19" t="n">
-        <v>7.7</v>
-      </c>
       <c r="U19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="V19" t="n">
-        <v>8.75</v>
+        <v>11.75</v>
       </c>
       <c r="W19" t="n">
-        <v>17.5</v>
+        <v>40</v>
       </c>
       <c r="X19" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="Y19" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="Z19" t="n">
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
       <c r="AA19" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE19" t="n">
         <v>7.3</v>
       </c>
-      <c r="AB19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>400</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AF19" t="n">
-        <v>26</v>
+        <v>11.25</v>
       </c>
       <c r="AG19" t="n">
-        <v>13.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH19" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="AI19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>35</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>drYamGM6</t>
+          <t>nDWXHxjK</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2566,119 +2506,119 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHNL</t>
+          <t>CYPRUS - CYPRUS LEAGUE</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Ostrava B</t>
+          <t>Aris</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Opava</t>
+          <t>Omonia</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I20" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K20" t="n">
-        <v>10</v>
+        <v>8.25</v>
       </c>
       <c r="L20" t="n">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="M20" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="O20" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="P20" t="n">
         <v>1.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.75</v>
+        <v>2.82</v>
       </c>
       <c r="R20" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="S20" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="T20" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="U20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V20" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W20" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="X20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y20" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="Z20" t="n">
-        <v>10</v>
+        <v>8.25</v>
       </c>
       <c r="AA20" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AB20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC20" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AD20" t="n">
-        <v>251</v>
+        <v>400</v>
       </c>
       <c r="AE20" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="AI20" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AJ20" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>UP1HHqkI</t>
+          <t>drYamGM6</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2688,32 +2628,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>CZECH REPUBLIC - CHNL</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Vejle</t>
+          <t>Ostrava B</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lyngby</t>
+          <t>Opava</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="H21" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="J21" t="n">
         <v>1.06</v>
@@ -2728,7 +2668,7 @@
         <v>3.4</v>
       </c>
       <c r="N21" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O21" t="n">
         <v>1.8</v>
@@ -2740,37 +2680,37 @@
         <v>2.75</v>
       </c>
       <c r="R21" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S21" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="T21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U21" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="V21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W21" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="X21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y21" t="n">
         <v>29</v>
       </c>
       <c r="Z21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC21" t="n">
         <v>51</v>
@@ -2782,25 +2722,25 @@
         <v>10</v>
       </c>
       <c r="AF21" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AG21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2FqyTFOq</t>
+          <t>UP1HHqkI</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2810,32 +2750,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>EL Nacional</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vinotinto</t>
+          <t>Lyngby</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J22" t="n">
         <v>1.07</v>
@@ -2844,40 +2784,40 @@
         <v>9</v>
       </c>
       <c r="L22" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="M22" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="N22" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="O22" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P22" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R22" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T22" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="U22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X22" t="n">
         <v>19</v>
@@ -2886,22 +2826,22 @@
         <v>29</v>
       </c>
       <c r="Z22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA22" t="n">
         <v>6</v>
       </c>
       <c r="AB22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD22" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AE22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF22" t="n">
         <v>15</v>
@@ -2910,19 +2850,19 @@
         <v>12</v>
       </c>
       <c r="AH22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI22" t="n">
         <v>29</v>
       </c>
-      <c r="AI22" t="n">
-        <v>23</v>
-      </c>
       <c r="AJ22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>E5mk5QWI</t>
+          <t>2FqyTFOq</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2932,32 +2872,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>EL Nacional</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bristol City</t>
+          <t>Vinotinto</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H23" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="J23" t="n">
         <v>1.07</v>
@@ -2966,43 +2906,43 @@
         <v>9</v>
       </c>
       <c r="L23" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="M23" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="N23" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R23" t="n">
         <v>1.73</v>
       </c>
-      <c r="P23" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.91</v>
-      </c>
       <c r="S23" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T23" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="U23" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="V23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W23" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="X23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y23" t="n">
         <v>29</v>
@@ -3011,40 +2951,40 @@
         <v>9</v>
       </c>
       <c r="AA23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB23" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AC23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD23" t="n">
-        <v>401</v>
+        <v>201</v>
       </c>
       <c r="AE23" t="n">
         <v>10</v>
       </c>
       <c r="AF23" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AG23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH23" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AI23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>fBXCsKH5</t>
+          <t>E5mk5QWI</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3054,119 +2994,119 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FINLAND - VEIKKAUSLIIGA</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>VPS</t>
+          <t>Bristol City</t>
         </is>
       </c>
       <c r="G24" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N24" t="n">
         <v>2.1</v>
       </c>
-      <c r="H24" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="O24" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W24" t="n">
         <v>15</v>
       </c>
-      <c r="L24" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="O24" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T24" t="n">
-        <v>11</v>
-      </c>
-      <c r="U24" t="n">
-        <v>12</v>
-      </c>
-      <c r="V24" t="n">
-        <v>9</v>
-      </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>351</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF24" t="n">
         <v>21</v>
       </c>
-      <c r="X24" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC24" t="n">
+      <c r="AG24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI24" t="n">
         <v>34</v>
       </c>
-      <c r="AD24" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>23</v>
-      </c>
       <c r="AJ24" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>M74zTEoJ</t>
+          <t>fBXCsKH5</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3176,59 +3116,119 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
+          <t>FINLAND - VEIKKAUSLIIGA</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Gagra</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Kolkheti 1913</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr"/>
-      <c r="AH25" t="inlineStr"/>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="inlineStr"/>
+          <t>VPS</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K25" t="n">
+        <v>15</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T25" t="n">
+        <v>11</v>
+      </c>
+      <c r="U25" t="n">
+        <v>12</v>
+      </c>
+      <c r="V25" t="n">
+        <v>9</v>
+      </c>
+      <c r="W25" t="n">
+        <v>21</v>
+      </c>
+      <c r="X25" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>n1OEjIwQ</t>
+          <t>M74zTEoJ</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -3248,12 +3248,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Telavi</t>
+          <t>Gagra</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Dila Gori</t>
+          <t>Kolkheti 1913</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -3290,7 +3290,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>va3gqzWa</t>
+          <t>n1OEjIwQ</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3300,7 +3300,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -3310,12 +3310,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FC Gareji Sagarejo</t>
+          <t>Telavi</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Dinamo Tbilisi</t>
+          <t>Dila Gori</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -3352,7 +3352,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>U5DT2scf</t>
+          <t>va3gqzWa</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3362,119 +3362,59 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>H. Beer Sheva</t>
+          <t>FC Gareji Sagarejo</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Maccabi Haifa</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="H28" t="n">
-        <v>5</v>
-      </c>
-      <c r="I28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="K28" t="n">
-        <v>19</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="M28" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="N28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O28" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T28" t="n">
-        <v>9</v>
-      </c>
-      <c r="U28" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="V28" t="n">
-        <v>9</v>
-      </c>
-      <c r="W28" t="n">
-        <v>9</v>
-      </c>
-      <c r="X28" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>101</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>51</v>
-      </c>
+          <t>Dinamo Tbilisi</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>YwKK43Ss</t>
+          <t>U5DT2scf</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3494,109 +3434,109 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Netanya</t>
+          <t>H. Beer Sheva</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Maccabi Haifa</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>7.5</v>
+        <v>1.33</v>
       </c>
       <c r="H29" t="n">
         <v>5</v>
       </c>
       <c r="I29" t="n">
-        <v>1.36</v>
+        <v>8</v>
       </c>
       <c r="J29" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K29" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L29" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="M29" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N29" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="O29" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="P29" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q29" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R29" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="S29" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="T29" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="U29" t="n">
-        <v>41</v>
+        <v>7.5</v>
       </c>
       <c r="V29" t="n">
+        <v>9</v>
+      </c>
+      <c r="W29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X29" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y29" t="n">
         <v>23</v>
       </c>
-      <c r="W29" t="n">
-        <v>81</v>
-      </c>
-      <c r="X29" t="n">
-        <v>51</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>41</v>
-      </c>
       <c r="Z29" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA29" t="n">
         <v>10</v>
       </c>
       <c r="AB29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF29" t="n">
         <v>41</v>
       </c>
-      <c r="AD29" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AG29" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="AI29" t="n">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="AJ29" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Y5hsFR0S</t>
+          <t>YwKK43Ss</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3606,119 +3546,119 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>00:10</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Tigres UANL</t>
+          <t>Netanya</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Necaxa</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.85</v>
+        <v>7.5</v>
       </c>
       <c r="H30" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="I30" t="n">
-        <v>4.9</v>
+        <v>1.36</v>
       </c>
       <c r="J30" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="K30" t="n">
-        <v>9.25</v>
+        <v>21</v>
       </c>
       <c r="L30" t="n">
-        <v>1.26</v>
+        <v>1.13</v>
       </c>
       <c r="M30" t="n">
-        <v>3.95</v>
+        <v>6</v>
       </c>
       <c r="N30" t="n">
-        <v>1.78</v>
+        <v>1.44</v>
       </c>
       <c r="O30" t="n">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="P30" t="n">
-        <v>1.42</v>
+        <v>1.22</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.82</v>
+        <v>4</v>
       </c>
       <c r="R30" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="S30" t="n">
-        <v>2.27</v>
+        <v>2.1</v>
       </c>
       <c r="T30" t="n">
-        <v>7.8</v>
+        <v>26</v>
       </c>
       <c r="U30" t="n">
-        <v>10.5</v>
+        <v>41</v>
       </c>
       <c r="V30" t="n">
-        <v>8.25</v>
+        <v>23</v>
       </c>
       <c r="W30" t="n">
-        <v>18.5</v>
+        <v>81</v>
       </c>
       <c r="X30" t="n">
-        <v>14.5</v>
+        <v>51</v>
       </c>
       <c r="Y30" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z30" t="n">
         <v>21</v>
       </c>
-      <c r="Z30" t="n">
-        <v>9.25</v>
-      </c>
       <c r="AA30" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="AB30" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AC30" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AD30" t="n">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="AE30" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="AF30" t="n">
-        <v>37</v>
+        <v>8.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>15.5</v>
+        <v>9</v>
       </c>
       <c r="AH30" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="AI30" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="AJ30" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>0rXolZG5</t>
+          <t>Y5hsFR0S</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3728,59 +3668,119 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>00:10</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Chabab Mohammedia</t>
+          <t>Tigres UANL</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Raja Casablanca</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr"/>
-      <c r="AH31" t="inlineStr"/>
-      <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="inlineStr"/>
+          <t>Necaxa</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K31" t="n">
+        <v>11</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U31" t="n">
+        <v>9</v>
+      </c>
+      <c r="V31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W31" t="n">
+        <v>15</v>
+      </c>
+      <c r="X31" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>jJ6A0AQ9</t>
+          <t>0rXolZG5</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3790,119 +3790,59 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NORWAY - OBOS-LIGAEN</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Asane</t>
+          <t>Chabab Mohammedia</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Stabaek</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H32" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I32" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="J32" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K32" t="n">
-        <v>17</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="M32" t="n">
-        <v>5</v>
-      </c>
-      <c r="N32" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O32" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T32" t="n">
-        <v>13</v>
-      </c>
-      <c r="U32" t="n">
-        <v>17</v>
-      </c>
-      <c r="V32" t="n">
-        <v>11</v>
-      </c>
-      <c r="W32" t="n">
-        <v>29</v>
-      </c>
-      <c r="X32" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>101</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>21</v>
-      </c>
+          <t>Raja Casablanca</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>rDqqpktT</t>
+          <t>jJ6A0AQ9</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3922,109 +3862,109 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Kongsvinger</t>
+          <t>Asane</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Odd</t>
+          <t>Stabaek</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.75</v>
+        <v>2.8</v>
       </c>
       <c r="H33" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="I33" t="n">
-        <v>3.9</v>
+        <v>2.25</v>
       </c>
       <c r="J33" t="n">
         <v>1.03</v>
       </c>
       <c r="K33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L33" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M33" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="N33" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="O33" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="P33" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R33" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="S33" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="T33" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="U33" t="n">
+        <v>17</v>
+      </c>
+      <c r="V33" t="n">
+        <v>11</v>
+      </c>
+      <c r="W33" t="n">
+        <v>29</v>
+      </c>
+      <c r="X33" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG33" t="n">
         <v>9.5</v>
       </c>
-      <c r="V33" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W33" t="n">
-        <v>15</v>
-      </c>
-      <c r="X33" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y33" t="n">
+      <c r="AH33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ33" t="n">
         <v>21</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>8</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>U3I12Wec</t>
+          <t>rDqqpktT</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4044,22 +3984,22 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Skeid</t>
+          <t>Kongsvinger</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lillestrom</t>
+          <t>Odd</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>6.25</v>
+        <v>1.75</v>
       </c>
       <c r="H34" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>1.44</v>
+        <v>3.9</v>
       </c>
       <c r="J34" t="n">
         <v>1.03</v>
@@ -4086,67 +4026,67 @@
         <v>3.4</v>
       </c>
       <c r="R34" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="S34" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="T34" t="n">
-        <v>19</v>
+        <v>8.5</v>
       </c>
       <c r="U34" t="n">
-        <v>34</v>
+        <v>9.5</v>
       </c>
       <c r="V34" t="n">
-        <v>19</v>
+        <v>8.5</v>
       </c>
       <c r="W34" t="n">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="X34" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="Y34" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="Z34" t="n">
         <v>15</v>
       </c>
       <c r="AA34" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB34" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AC34" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD34" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AE34" t="n">
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="AF34" t="n">
-        <v>7.5</v>
+        <v>23</v>
       </c>
       <c r="AG34" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AH34" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="AI34" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AJ34" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>QL8cRVpp</t>
+          <t>U3I12Wec</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4156,119 +4096,119 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PERU - LIGA 1</t>
+          <t>NORWAY - OBOS-LIGAEN</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Alianza Huanuco</t>
+          <t>Skeid</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Sport Huancayo</t>
+          <t>Lillestrom</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.35</v>
+        <v>6.25</v>
       </c>
       <c r="H35" t="n">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="I35" t="n">
-        <v>2.9</v>
+        <v>1.44</v>
       </c>
       <c r="J35" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K35" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L35" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="M35" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="N35" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="O35" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="P35" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="Q35" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="R35" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S35" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="T35" t="n">
+        <v>19</v>
+      </c>
+      <c r="U35" t="n">
+        <v>34</v>
+      </c>
+      <c r="V35" t="n">
+        <v>19</v>
+      </c>
+      <c r="W35" t="n">
+        <v>67</v>
+      </c>
+      <c r="X35" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG35" t="n">
         <v>8.5</v>
       </c>
-      <c r="U35" t="n">
+      <c r="AH35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI35" t="n">
         <v>12</v>
       </c>
-      <c r="V35" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W35" t="n">
-        <v>21</v>
-      </c>
-      <c r="X35" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI35" t="n">
+      <c r="AJ35" t="n">
         <v>23</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>bNdryo6j</t>
+          <t>QL8cRVpp</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4278,32 +4218,32 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>PERU - LIGA 1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Puszcza</t>
+          <t>Alianza Huanuco</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Sport Huancayo</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.7</v>
+        <v>2.35</v>
       </c>
       <c r="H36" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I36" t="n">
-        <v>2.63</v>
+        <v>2.9</v>
       </c>
       <c r="J36" t="n">
         <v>1.05</v>
@@ -4312,16 +4252,16 @@
         <v>11</v>
       </c>
       <c r="L36" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M36" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N36" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O36" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="P36" t="n">
         <v>1.36</v>
@@ -4330,34 +4270,34 @@
         <v>3</v>
       </c>
       <c r="R36" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S36" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U36" t="n">
+        <v>12</v>
+      </c>
+      <c r="V36" t="n">
         <v>9.5</v>
       </c>
-      <c r="U36" t="n">
-        <v>13</v>
-      </c>
-      <c r="V36" t="n">
-        <v>10</v>
-      </c>
       <c r="W36" t="n">
+        <v>21</v>
+      </c>
+      <c r="X36" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y36" t="n">
         <v>26</v>
-      </c>
-      <c r="X36" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>29</v>
       </c>
       <c r="Z36" t="n">
         <v>11</v>
       </c>
       <c r="AA36" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB36" t="n">
         <v>13</v>
@@ -4366,22 +4306,22 @@
         <v>41</v>
       </c>
       <c r="AD36" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ36" t="n">
         <v>29</v>
@@ -4390,7 +4330,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>xnmBMGiC</t>
+          <t>bNdryo6j</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4405,114 +4345,114 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Wisla Plock</t>
+          <t>Puszcza</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Arka Gdynia</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="H37" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I37" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K37" t="n">
+        <v>11</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q37" t="n">
         <v>3</v>
       </c>
-      <c r="J37" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="R37" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T37" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U37" t="n">
+        <v>13</v>
+      </c>
+      <c r="V37" t="n">
         <v>10</v>
       </c>
-      <c r="L37" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M37" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="N37" t="n">
-        <v>2</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T37" t="n">
-        <v>8</v>
-      </c>
-      <c r="U37" t="n">
-        <v>11</v>
-      </c>
-      <c r="V37" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W37" t="n">
+        <v>26</v>
+      </c>
+      <c r="X37" t="n">
         <v>21</v>
-      </c>
-      <c r="X37" t="n">
-        <v>19</v>
       </c>
       <c r="Y37" t="n">
         <v>29</v>
       </c>
       <c r="Z37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA37" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD37" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AE37" t="n">
         <v>9.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH37" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AI37" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AJ37" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>pdMqtSwR</t>
+          <t>xnmBMGiC</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4522,119 +4462,119 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>ROMANIA - SUPERLIGA</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Petrolul</t>
+          <t>Wisla Plock</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Otelul</t>
+          <t>Arka Gdynia</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="H38" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I38" t="n">
         <v>2.9</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K38" t="n">
+        <v>10</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q38" t="n">
         <v>2.75</v>
       </c>
-      <c r="J38" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="K38" t="n">
-        <v>6</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M38" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="N38" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P38" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2.25</v>
-      </c>
       <c r="R38" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="S38" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="T38" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="U38" t="n">
         <v>11</v>
       </c>
       <c r="V38" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W38" t="n">
+        <v>21</v>
+      </c>
+      <c r="X38" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG38" t="n">
         <v>11</v>
       </c>
-      <c r="W38" t="n">
-        <v>29</v>
-      </c>
-      <c r="X38" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>12</v>
-      </c>
       <c r="AH38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI38" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AJ38" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>8xKnSIRG</t>
+          <t>pdMqtSwR</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4644,7 +4584,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -4654,109 +4594,109 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Din. Bucuresti</t>
+          <t>Petrolul</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>FC Rapid Bucuresti</t>
+          <t>Otelul</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="H39" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="I39" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="J39" t="n">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
       <c r="K39" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L39" t="n">
-        <v>1.29</v>
+        <v>1.53</v>
       </c>
       <c r="M39" t="n">
-        <v>3.5</v>
+        <v>2.38</v>
       </c>
       <c r="N39" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="O39" t="n">
-        <v>1.9</v>
+        <v>1.44</v>
       </c>
       <c r="P39" t="n">
-        <v>1.36</v>
+        <v>1.57</v>
       </c>
       <c r="Q39" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="R39" t="n">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="S39" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="T39" t="n">
-        <v>9.5</v>
+        <v>5.5</v>
       </c>
       <c r="U39" t="n">
+        <v>9</v>
+      </c>
+      <c r="V39" t="n">
+        <v>10</v>
+      </c>
+      <c r="W39" t="n">
+        <v>21</v>
+      </c>
+      <c r="X39" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF39" t="n">
         <v>15</v>
       </c>
-      <c r="V39" t="n">
-        <v>11</v>
-      </c>
-      <c r="W39" t="n">
-        <v>29</v>
-      </c>
-      <c r="X39" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB39" t="n">
+      <c r="AG39" t="n">
         <v>13</v>
       </c>
-      <c r="AC39" t="n">
+      <c r="AH39" t="n">
         <v>41</v>
       </c>
-      <c r="AD39" t="n">
-        <v>201</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>23</v>
-      </c>
       <c r="AI39" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AJ39" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0Gns0flI</t>
+          <t>8xKnSIRG</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4766,59 +4706,119 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>RUSSIA - PREMIER LEAGUE</t>
+          <t>ROMANIA - SUPERLIGA</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Pari NN</t>
+          <t>Din. Bucuresti</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Krylya Sovetov</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
-      <c r="AB40" t="inlineStr"/>
-      <c r="AC40" t="inlineStr"/>
-      <c r="AD40" t="inlineStr"/>
-      <c r="AE40" t="inlineStr"/>
-      <c r="AF40" t="inlineStr"/>
-      <c r="AG40" t="inlineStr"/>
-      <c r="AH40" t="inlineStr"/>
-      <c r="AI40" t="inlineStr"/>
-      <c r="AJ40" t="inlineStr"/>
+          <t>FC Rapid Bucuresti</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H40" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K40" t="n">
+        <v>11</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2</v>
+      </c>
+      <c r="T40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U40" t="n">
+        <v>15</v>
+      </c>
+      <c r="V40" t="n">
+        <v>11</v>
+      </c>
+      <c r="W40" t="n">
+        <v>29</v>
+      </c>
+      <c r="X40" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>lYEZTbID</t>
+          <t>0Gns0flI</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4828,119 +4828,59 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>RUSSIA - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Pari NN</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Al Orubah</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H41" t="n">
-        <v>12</v>
-      </c>
-      <c r="I41" t="n">
-        <v>15</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K41" t="n">
-        <v>17</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="M41" t="n">
-        <v>8</v>
-      </c>
-      <c r="N41" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="O41" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="P41" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" t="n">
-        <v>2</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T41" t="n">
-        <v>15</v>
-      </c>
-      <c r="U41" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="V41" t="n">
-        <v>13</v>
-      </c>
-      <c r="W41" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X41" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>900</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>41</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>151</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>81</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>51</v>
-      </c>
+          <t>Krylya Sovetov</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr"/>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="inlineStr"/>
+      <c r="AH41" t="inlineStr"/>
+      <c r="AI41" t="inlineStr"/>
+      <c r="AJ41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>lQMrLOjt</t>
+          <t>lYEZTbID</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4950,7 +4890,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -4960,22 +4900,22 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Al Okhdood</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Orubah</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>5.5</v>
+        <v>1.13</v>
       </c>
       <c r="H42" t="n">
-        <v>4.75</v>
+        <v>11</v>
       </c>
       <c r="I42" t="n">
-        <v>1.44</v>
+        <v>13</v>
       </c>
       <c r="J42" t="n">
         <v>1.01</v>
@@ -4984,85 +4924,85 @@
         <v>17</v>
       </c>
       <c r="L42" t="n">
-        <v>1.17</v>
+        <v>1.07</v>
       </c>
       <c r="M42" t="n">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="N42" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="O42" t="n">
-        <v>2.35</v>
+        <v>3.75</v>
       </c>
       <c r="P42" t="n">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="Q42" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="R42" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="S42" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T42" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="U42" t="n">
-        <v>29</v>
+        <v>8.5</v>
       </c>
       <c r="V42" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="W42" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X42" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>151</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ42" t="n">
         <v>51</v>
-      </c>
-      <c r="X42" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>OOAccQMs</t>
+          <t>lQMrLOjt</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -5077,54 +5017,114 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - DIVISION 1</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Abha</t>
+          <t>Al Okhdood</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Al Taee</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr"/>
-      <c r="AB43" t="inlineStr"/>
-      <c r="AC43" t="inlineStr"/>
-      <c r="AD43" t="inlineStr"/>
-      <c r="AE43" t="inlineStr"/>
-      <c r="AF43" t="inlineStr"/>
-      <c r="AG43" t="inlineStr"/>
-      <c r="AH43" t="inlineStr"/>
-      <c r="AI43" t="inlineStr"/>
-      <c r="AJ43" t="inlineStr"/>
+          <t>Al Nassr</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>5</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K43" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O43" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2</v>
+      </c>
+      <c r="T43" t="n">
+        <v>17</v>
+      </c>
+      <c r="U43" t="n">
+        <v>29</v>
+      </c>
+      <c r="V43" t="n">
+        <v>17</v>
+      </c>
+      <c r="W43" t="n">
+        <v>51</v>
+      </c>
+      <c r="X43" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>GImWt5x1</t>
+          <t>OOAccQMs</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5144,12 +5144,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Al Adalah</t>
+          <t>Abha</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Neom SC</t>
+          <t>Al Taee</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -5186,7 +5186,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2FNdS5N7</t>
+          <t>GImWt5x1</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5206,12 +5206,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Al Hazem</t>
+          <t>Al Adalah</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Al Jandal</t>
+          <t>Neom SC</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -5248,7 +5248,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>jy4ilmpR</t>
+          <t>2FNdS5N7</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5268,12 +5268,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Al Jabalain</t>
+          <t>Al Hazem</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Al Safa</t>
+          <t>Al Jandal</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -5310,7 +5310,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>4vUQ2naK</t>
+          <t>jy4ilmpR</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5330,12 +5330,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>Al Jabalain</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Al Batin</t>
+          <t>Al Safa</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -5372,7 +5372,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>xYyuuq7D</t>
+          <t>4vUQ2naK</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5392,12 +5392,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Al Najma</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Ohod</t>
+          <t>Al Batin</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>IN5qj9FE</t>
+          <t>xYyuuq7D</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5454,12 +5454,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Al Zulfi</t>
+          <t>Al Najma</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Al Bukiryah</t>
+          <t>Ohod</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -5496,7 +5496,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>dx95e4if</t>
+          <t>IN5qj9FE</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5516,12 +5516,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Al-Faisaly</t>
+          <t>Al Zulfi</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Al Ain</t>
+          <t>Al Bukiryah</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -5558,7 +5558,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ALpOrR7l</t>
+          <t>dx95e4if</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5578,12 +5578,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Jeddah</t>
+          <t>Al-Faisaly</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Al Arabi</t>
+          <t>Al Ain</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -5620,7 +5620,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>KfQtJm0n</t>
+          <t>ALpOrR7l</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5630,22 +5630,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SAUDI ARABIA - DIVISION 1</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Jeddah</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>IMT Novi Beograd</t>
+          <t>Al Arabi</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -5682,7 +5682,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>EH3F2SF5</t>
+          <t>KfQtJm0n</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -5692,7 +5692,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -5702,12 +5702,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>IMT Novi Beograd</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -5744,7 +5744,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2RqwUAHc</t>
+          <t>EH3F2SF5</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -5754,119 +5754,59 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>Zeleznicar Pancevo</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Eibar</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="H54" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I54" t="n">
-        <v>5</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K54" t="n">
-        <v>8</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M54" t="n">
-        <v>3</v>
-      </c>
-      <c r="N54" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P54" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="R54" t="n">
-        <v>2</v>
-      </c>
-      <c r="S54" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T54" t="n">
-        <v>6</v>
-      </c>
-      <c r="U54" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="V54" t="n">
-        <v>9</v>
-      </c>
-      <c r="W54" t="n">
-        <v>13</v>
-      </c>
-      <c r="X54" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG54" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH54" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>51</v>
-      </c>
+          <t>Napredak</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
+      <c r="AC54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr"/>
+      <c r="AE54" t="inlineStr"/>
+      <c r="AF54" t="inlineStr"/>
+      <c r="AG54" t="inlineStr"/>
+      <c r="AH54" t="inlineStr"/>
+      <c r="AI54" t="inlineStr"/>
+      <c r="AJ54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>nJua6JAE</t>
+          <t>2RqwUAHc</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -5876,50 +5816,50 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>14:10</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SWEDEN - ALLSVENSKAN</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Goteborg</t>
+          <t>Granada CF</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Djurgarden</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="H55" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I55" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="J55" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K55" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L55" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M55" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N55" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="O55" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="P55" t="n">
         <v>1.44</v>
@@ -5928,67 +5868,67 @@
         <v>2.63</v>
       </c>
       <c r="R55" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S55" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="T55" t="n">
+        <v>6</v>
+      </c>
+      <c r="U55" t="n">
         <v>7.5</v>
       </c>
-      <c r="U55" t="n">
-        <v>11</v>
-      </c>
       <c r="V55" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W55" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="X55" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y55" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z55" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA55" t="n">
         <v>6.5</v>
       </c>
       <c r="AB55" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AC55" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH55" t="n">
         <v>51</v>
       </c>
-      <c r="AD55" t="n">
-        <v>301</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>9</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG55" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH55" t="n">
-        <v>34</v>
-      </c>
       <c r="AI55" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AJ55" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>IiD4WMc5</t>
+          <t>nJua6JAE</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -5998,110 +5938,110 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:10</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SWEDEN - ALLSVENSKAN</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Landskrona</t>
+          <t>Goteborg</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Orgryte</t>
+          <t>Djurgarden</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="H56" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="I56" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="J56" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="K56" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L56" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="M56" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N56" t="n">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="O56" t="n">
-        <v>2.08</v>
+        <v>1.7</v>
       </c>
       <c r="P56" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="Q56" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="R56" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="S56" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="T56" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="U56" t="n">
+        <v>11</v>
+      </c>
+      <c r="V56" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W56" t="n">
+        <v>21</v>
+      </c>
+      <c r="X56" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z56" t="n">
         <v>9</v>
       </c>
-      <c r="V56" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W56" t="n">
+      <c r="AA56" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB56" t="n">
         <v>15</v>
       </c>
-      <c r="X56" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>13</v>
-      </c>
       <c r="AC56" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD56" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AE56" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AF56" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AG56" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH56" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI56" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AJ56" t="n">
         <v>34</v>
@@ -6110,7 +6050,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>vFi6ArF8</t>
+          <t>IiD4WMc5</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -6125,96 +6065,96 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Landskrona</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Orgryte</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="H57" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I57" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="J57" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K57" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L57" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="M57" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N57" t="n">
-        <v>1.93</v>
+        <v>1.73</v>
       </c>
       <c r="O57" t="n">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="P57" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q57" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R57" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S57" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="T57" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U57" t="n">
+        <v>9</v>
+      </c>
+      <c r="V57" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W57" t="n">
+        <v>15</v>
+      </c>
+      <c r="X57" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA57" t="n">
         <v>7.5</v>
       </c>
-      <c r="U57" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="V57" t="n">
-        <v>9</v>
-      </c>
-      <c r="W57" t="n">
-        <v>17</v>
-      </c>
-      <c r="X57" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>7</v>
-      </c>
       <c r="AB57" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC57" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD57" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AE57" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF57" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AG57" t="n">
         <v>13</v>
@@ -6223,7 +6163,7 @@
         <v>41</v>
       </c>
       <c r="AI57" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ57" t="n">
         <v>34</v>
@@ -6232,7 +6172,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>0MR37vvJ</t>
+          <t>vFi6ArF8</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -6242,117 +6182,119 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Inhulets</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Livyi Bereg</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.95</v>
+        <v>1.91</v>
       </c>
       <c r="H58" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="I58" t="n">
-        <v>2.47</v>
+        <v>3.7</v>
       </c>
       <c r="J58" t="n">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
       <c r="K58" t="n">
-        <v>4.45</v>
+        <v>11</v>
       </c>
       <c r="L58" t="n">
-        <v>1.6</v>
+        <v>1.29</v>
       </c>
       <c r="M58" t="n">
-        <v>2.07</v>
+        <v>3.5</v>
       </c>
       <c r="N58" t="n">
-        <v>2.7</v>
+        <v>1.93</v>
       </c>
       <c r="O58" t="n">
-        <v>1.35</v>
+        <v>1.88</v>
       </c>
       <c r="P58" t="n">
-        <v>1.62</v>
+        <v>1.36</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.02</v>
+        <v>3</v>
       </c>
       <c r="R58" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="S58" t="n">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="T58" t="n">
-        <v>6.2</v>
+        <v>7.5</v>
       </c>
       <c r="U58" t="n">
-        <v>12.5</v>
+        <v>9.5</v>
       </c>
       <c r="V58" t="n">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="W58" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="X58" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="Y58" t="n">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="Z58" t="n">
-        <v>4.8</v>
+        <v>11</v>
       </c>
       <c r="AA58" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB58" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AC58" t="n">
-        <v>175</v>
-      </c>
-      <c r="AD58" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>251</v>
+      </c>
       <c r="AE58" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="AF58" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AG58" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH58" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AI58" t="n">
         <v>29</v>
       </c>
       <c r="AJ58" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>vofn60A5</t>
+          <t>0MR37vvJ</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -6362,59 +6304,117 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>11:10</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Bani Yas</t>
+          <t>Inhulets</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Khorfakkan</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
-      <c r="AA59" t="inlineStr"/>
-      <c r="AB59" t="inlineStr"/>
-      <c r="AC59" t="inlineStr"/>
+          <t>Livyi Bereg</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="K59" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="N59" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T59" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="U59" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="W59" t="n">
+        <v>40</v>
+      </c>
+      <c r="X59" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>70</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>175</v>
+      </c>
       <c r="AD59" t="inlineStr"/>
-      <c r="AE59" t="inlineStr"/>
-      <c r="AF59" t="inlineStr"/>
-      <c r="AG59" t="inlineStr"/>
-      <c r="AH59" t="inlineStr"/>
-      <c r="AI59" t="inlineStr"/>
-      <c r="AJ59" t="inlineStr"/>
+      <c r="AE59" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>nBcf4vuI</t>
+          <t>vofn60A5</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -6434,12 +6434,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Dibba Al Hisn</t>
+          <t>Bani Yas</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Al Wahda</t>
+          <t>Khorfakkan</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -6476,7 +6476,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>tAj32I9U</t>
+          <t>nBcf4vuI</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -6486,7 +6486,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:10</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -6496,12 +6496,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Al Sharjah</t>
+          <t>Dibba Al Hisn</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Al Ain</t>
+          <t>Al Wahda</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -6535,6 +6535,68 @@
       <c r="AI61" t="inlineStr"/>
       <c r="AJ61" t="inlineStr"/>
     </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>tAj32I9U</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>12/05/2025</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>UNITED ARAB EMIRATES - UAE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Al Sharjah</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Al Ain</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr"/>
+      <c r="AC62" t="inlineStr"/>
+      <c r="AD62" t="inlineStr"/>
+      <c r="AE62" t="inlineStr"/>
+      <c r="AF62" t="inlineStr"/>
+      <c r="AG62" t="inlineStr"/>
+      <c r="AH62" t="inlineStr"/>
+      <c r="AI62" t="inlineStr"/>
+      <c r="AJ62" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Jogos_da_Semana_FlashScore_2025-05-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-12.xlsx
@@ -656,13 +656,13 @@
         <v>2.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="K2" t="n">
         <v>8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
@@ -686,7 +686,7 @@
         <v>1.91</v>
       </c>
       <c r="T2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U2" t="n">
         <v>13</v>
@@ -722,7 +722,7 @@
         <v>7.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AG2" t="n">
         <v>10</v>
@@ -769,37 +769,37 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I3" t="n">
         <v>3.6</v>
       </c>
-      <c r="I3" t="n">
-        <v>3.8</v>
-      </c>
       <c r="J3" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K3" t="n">
         <v>11</v>
       </c>
       <c r="L3" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="O3" t="n">
-        <v>2.04</v>
+        <v>1.99</v>
       </c>
       <c r="P3" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q3" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R3" t="n">
         <v>1.7</v>
@@ -808,7 +808,7 @@
         <v>2.05</v>
       </c>
       <c r="T3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U3" t="n">
         <v>10</v>
@@ -829,7 +829,7 @@
         <v>12</v>
       </c>
       <c r="AA3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB3" t="n">
         <v>13</v>
@@ -838,7 +838,7 @@
         <v>41</v>
       </c>
       <c r="AD3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE3" t="n">
         <v>12</v>
@@ -890,36 +890,96 @@
           <t>Cambuur</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="T4" t="n">
+        <v>14</v>
+      </c>
+      <c r="U4" t="n">
+        <v>26</v>
+      </c>
+      <c r="V4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="W4" t="n">
+        <v>60</v>
+      </c>
+      <c r="X4" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -953,19 +1013,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I5" t="n">
         <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K5" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="L5" t="n">
         <v>1.33</v>
@@ -974,10 +1034,10 @@
         <v>3.25</v>
       </c>
       <c r="N5" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="O5" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="P5" t="n">
         <v>1.4</v>
@@ -998,19 +1058,19 @@
         <v>5</v>
       </c>
       <c r="V5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W5" t="n">
         <v>7.5</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y5" t="n">
         <v>41</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA5" t="n">
         <v>10</v>
@@ -1023,22 +1083,22 @@
       </c>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH5" t="n">
         <v>151</v>
       </c>
       <c r="AI5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AJ5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6">
@@ -1202,10 +1262,10 @@
         <v>3.6</v>
       </c>
       <c r="J7" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="K7" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
         <v>1.73</v>
@@ -2047,13 +2107,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H16" t="n">
         <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -2061,7 +2121,7 @@
         <v>1.37</v>
       </c>
       <c r="M16" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="N16" t="n">
         <v>2.07</v>
@@ -2082,19 +2142,19 @@
         <v>1.8</v>
       </c>
       <c r="T16" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="U16" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="V16" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="W16" t="n">
         <v>40</v>
       </c>
       <c r="X16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y16" t="n">
         <v>40</v>
@@ -2103,7 +2163,7 @@
         <v>7.8</v>
       </c>
       <c r="AA16" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AB16" t="n">
         <v>14.5</v>
@@ -2115,16 +2175,16 @@
         <v>700</v>
       </c>
       <c r="AE16" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AF16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG16" t="n">
         <v>9.25</v>
       </c>
       <c r="AH16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI16" t="n">
         <v>21</v>
@@ -2647,7 +2707,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="H21" t="n">
         <v>3.4</v>
@@ -2680,10 +2740,10 @@
         <v>2.75</v>
       </c>
       <c r="R21" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S21" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T21" t="n">
         <v>7</v>
@@ -2775,7 +2835,7 @@
         <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J22" t="n">
         <v>1.07</v>
@@ -2802,10 +2862,10 @@
         <v>2.63</v>
       </c>
       <c r="R22" t="n">
-        <v>1.91</v>
+        <v>1.77</v>
       </c>
       <c r="S22" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="T22" t="n">
         <v>7.5</v>
@@ -2817,10 +2877,10 @@
         <v>9.5</v>
       </c>
       <c r="W22" t="n">
+        <v>23</v>
+      </c>
+      <c r="X22" t="n">
         <v>21</v>
-      </c>
-      <c r="X22" t="n">
-        <v>19</v>
       </c>
       <c r="Y22" t="n">
         <v>29</v>
@@ -2838,7 +2898,7 @@
         <v>51</v>
       </c>
       <c r="AD22" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE22" t="n">
         <v>9.5</v>
@@ -2853,10 +2913,10 @@
         <v>34</v>
       </c>
       <c r="AI22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -2891,7 +2951,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H23" t="n">
         <v>3</v>
@@ -2900,10 +2960,10 @@
         <v>3.1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L23" t="n">
         <v>1.29</v>
@@ -2924,7 +2984,7 @@
         <v>2.75</v>
       </c>
       <c r="R23" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S23" t="n">
         <v>2</v>
@@ -3013,7 +3073,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="H24" t="n">
         <v>3.6</v>
@@ -3025,7 +3085,7 @@
         <v>1.06</v>
       </c>
       <c r="K24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L24" t="n">
         <v>1.33</v>
@@ -3046,10 +3106,10 @@
         <v>2.75</v>
       </c>
       <c r="R24" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S24" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="T24" t="n">
         <v>6.5</v>
@@ -3168,10 +3228,10 @@
         <v>3.5</v>
       </c>
       <c r="R25" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S25" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="T25" t="n">
         <v>11</v>
@@ -3256,36 +3316,84 @@
           <t>Kolkheti 1913</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
+      <c r="G26" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.2</v>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
+      <c r="N26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.35</v>
+      </c>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr"/>
-      <c r="AH26" t="inlineStr"/>
-      <c r="AI26" t="inlineStr"/>
-      <c r="AJ26" t="inlineStr"/>
+      <c r="T26" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="U26" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="V26" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="W26" t="n">
+        <v>17</v>
+      </c>
+      <c r="X26" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3318,36 +3426,84 @@
           <t>Dila Gori</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
+      <c r="G27" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.47</v>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
+      <c r="N27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.5</v>
+      </c>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr"/>
-      <c r="AH27" t="inlineStr"/>
-      <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="inlineStr"/>
+      <c r="T27" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="U27" t="n">
+        <v>26</v>
+      </c>
+      <c r="V27" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="W27" t="n">
+        <v>80</v>
+      </c>
+      <c r="X27" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3380,36 +3536,84 @@
           <t>Dinamo Tbilisi</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1.93</v>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
+      <c r="N28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.35</v>
+      </c>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr"/>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="inlineStr"/>
+      <c r="T28" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="U28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="W28" t="n">
+        <v>45</v>
+      </c>
+      <c r="X28" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3470,7 +3674,7 @@
         <v>2.5</v>
       </c>
       <c r="P29" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Q29" t="n">
         <v>3.75</v>
@@ -3592,7 +3796,7 @@
         <v>2.7</v>
       </c>
       <c r="P30" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="Q30" t="n">
         <v>4</v>
@@ -3687,7 +3891,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H31" t="n">
         <v>3.6</v>
@@ -3774,7 +3978,7 @@
         <v>34</v>
       </c>
       <c r="AJ31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32">
@@ -4603,13 +4807,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="H39" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I39" t="n">
         <v>3</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3.4</v>
       </c>
       <c r="J39" t="n">
         <v>1.13</v>
@@ -4618,22 +4822,22 @@
         <v>6</v>
       </c>
       <c r="L39" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M39" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="N39" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="O39" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P39" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R39" t="n">
         <v>2.25</v>
@@ -4642,19 +4846,19 @@
         <v>1.57</v>
       </c>
       <c r="T39" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U39" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W39" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="X39" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y39" t="n">
         <v>41</v>
@@ -4675,16 +4879,16 @@
         <v>1250</v>
       </c>
       <c r="AE39" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AF39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG39" t="n">
         <v>13</v>
       </c>
       <c r="AH39" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI39" t="n">
         <v>34</v>
@@ -4746,13 +4950,13 @@
         <v>3.5</v>
       </c>
       <c r="N40" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="O40" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="P40" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q40" t="n">
         <v>3</v>
@@ -4909,19 +5113,19 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="H42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J42" t="n">
         <v>1.01</v>
       </c>
       <c r="K42" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="L42" t="n">
         <v>1.07</v>
@@ -4936,7 +5140,7 @@
         <v>3.75</v>
       </c>
       <c r="P42" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="Q42" t="n">
         <v>5</v>
@@ -4957,7 +5161,7 @@
         <v>12</v>
       </c>
       <c r="W42" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X42" t="n">
         <v>11</v>
@@ -4978,10 +5182,10 @@
         <v>67</v>
       </c>
       <c r="AD42" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE42" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF42" t="n">
         <v>67</v>
@@ -5031,19 +5235,19 @@
         </is>
       </c>
       <c r="G43" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H43" t="n">
         <v>5</v>
       </c>
-      <c r="H43" t="n">
-        <v>4.75</v>
-      </c>
       <c r="I43" t="n">
-        <v>1.48</v>
+        <v>1.39</v>
       </c>
       <c r="J43" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K43" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="L43" t="n">
         <v>1.17</v>
@@ -5058,28 +5262,28 @@
         <v>2.35</v>
       </c>
       <c r="P43" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="Q43" t="n">
         <v>3.5</v>
       </c>
       <c r="R43" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S43" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U43" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="V43" t="n">
         <v>17</v>
       </c>
       <c r="W43" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="X43" t="n">
         <v>41</v>
@@ -5091,10 +5295,10 @@
         <v>17</v>
       </c>
       <c r="AA43" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC43" t="n">
         <v>51</v>
@@ -5103,22 +5307,22 @@
         <v>151</v>
       </c>
       <c r="AE43" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF43" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG43" t="n">
         <v>8.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI43" t="n">
         <v>12</v>
       </c>
       <c r="AJ43" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44">
@@ -5835,7 +6039,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H55" t="n">
         <v>3.4</v>
@@ -5868,10 +6072,10 @@
         <v>2.63</v>
       </c>
       <c r="R55" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S55" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T55" t="n">
         <v>6</v>
@@ -5886,7 +6090,7 @@
         <v>13</v>
       </c>
       <c r="X55" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y55" t="n">
         <v>34</v>
@@ -5978,10 +6182,10 @@
         <v>3.25</v>
       </c>
       <c r="N56" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O56" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P56" t="n">
         <v>1.44</v>
@@ -6079,13 +6283,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H57" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I57" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J57" t="n">
         <v>1.04</v>
@@ -6118,7 +6322,7 @@
         <v>2.05</v>
       </c>
       <c r="T57" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U57" t="n">
         <v>9</v>
@@ -6127,7 +6331,7 @@
         <v>8.5</v>
       </c>
       <c r="W57" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X57" t="n">
         <v>13</v>
@@ -6142,31 +6346,31 @@
         <v>7.5</v>
       </c>
       <c r="AB57" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC57" t="n">
         <v>41</v>
       </c>
       <c r="AD57" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AE57" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF57" t="n">
         <v>23</v>
       </c>
       <c r="AG57" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH57" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI57" t="n">
         <v>34</v>
       </c>
       <c r="AJ57" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58">

--- a/Jogos_da_Semana_FlashScore_2025-05-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-12.xlsx
@@ -656,13 +656,13 @@
         <v>2.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K2" t="n">
         <v>8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
@@ -790,10 +790,10 @@
         <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="O3" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="P3" t="n">
         <v>1.33</v>
@@ -1013,31 +1013,31 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H5" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J5" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K5" t="n">
         <v>11</v>
       </c>
       <c r="L5" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="M5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N5" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="O5" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="P5" t="n">
         <v>1.4</v>
@@ -1046,25 +1046,25 @@
         <v>2.75</v>
       </c>
       <c r="R5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U5" t="n">
         <v>5</v>
       </c>
       <c r="V5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
         <v>41</v>
@@ -1073,13 +1073,13 @@
         <v>9</v>
       </c>
       <c r="AA5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB5" t="n">
         <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="n">
@@ -1142,13 +1142,13 @@
         <v>3.3</v>
       </c>
       <c r="J6" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="K6" t="n">
         <v>6.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="M6" t="n">
         <v>2.2</v>
@@ -1262,13 +1262,13 @@
         <v>3.6</v>
       </c>
       <c r="J7" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="K7" t="n">
         <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="H21" t="n">
         <v>3.4</v>
@@ -2740,10 +2740,10 @@
         <v>2.75</v>
       </c>
       <c r="R21" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S21" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T21" t="n">
         <v>7</v>
@@ -2829,7 +2829,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H22" t="n">
         <v>3.1</v>
@@ -2838,10 +2838,10 @@
         <v>3.1</v>
       </c>
       <c r="J22" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L22" t="n">
         <v>1.33</v>
@@ -2850,10 +2850,10 @@
         <v>3.25</v>
       </c>
       <c r="N22" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O22" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P22" t="n">
         <v>1.44</v>
@@ -2862,10 +2862,10 @@
         <v>2.63</v>
       </c>
       <c r="R22" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S22" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="T22" t="n">
         <v>7.5</v>
@@ -2951,7 +2951,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H23" t="n">
         <v>3</v>
@@ -2984,7 +2984,7 @@
         <v>2.75</v>
       </c>
       <c r="R23" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S23" t="n">
         <v>2</v>
@@ -3073,7 +3073,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="H24" t="n">
         <v>3.6</v>
@@ -3106,10 +3106,10 @@
         <v>2.75</v>
       </c>
       <c r="R24" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="S24" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="T24" t="n">
         <v>6.5</v>
@@ -3228,10 +3228,10 @@
         <v>3.5</v>
       </c>
       <c r="R25" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S25" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="T25" t="n">
         <v>11</v>
@@ -3427,82 +3427,82 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
       <c r="H27" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="I27" t="n">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="O27" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="P27" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="n">
-        <v>11.5</v>
+        <v>10.25</v>
       </c>
       <c r="U27" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="V27" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="W27" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="X27" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="Y27" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Z27" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AA27" t="n">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AC27" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AD27" t="n">
         <v>500</v>
       </c>
       <c r="AE27" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="AG27" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AH27" t="n">
-        <v>8.25</v>
+        <v>9.75</v>
       </c>
       <c r="AI27" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AJ27" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28">
@@ -3537,20 +3537,20 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="H28" t="n">
         <v>3.05</v>
       </c>
       <c r="I28" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="O28" t="n">
         <v>1.57</v>
@@ -3564,55 +3564,55 @@
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="U28" t="n">
         <v>15.5</v>
       </c>
       <c r="V28" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="W28" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="X28" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y28" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z28" t="n">
         <v>7.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AB28" t="n">
         <v>13</v>
       </c>
       <c r="AC28" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AD28" t="n">
         <v>500</v>
       </c>
       <c r="AE28" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AF28" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AG28" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AH28" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AI28" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
@@ -3656,10 +3656,10 @@
         <v>8</v>
       </c>
       <c r="J29" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L29" t="n">
         <v>1.14</v>
@@ -3674,7 +3674,7 @@
         <v>2.5</v>
       </c>
       <c r="P29" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="Q29" t="n">
         <v>3.75</v>
@@ -3796,7 +3796,7 @@
         <v>2.7</v>
       </c>
       <c r="P30" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="Q30" t="n">
         <v>4</v>
@@ -3891,13 +3891,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H31" t="n">
         <v>3.6</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J31" t="n">
         <v>1.05</v>
@@ -3924,22 +3924,22 @@
         <v>3</v>
       </c>
       <c r="R31" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S31" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T31" t="n">
         <v>7.5</v>
       </c>
       <c r="U31" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V31" t="n">
         <v>8.5</v>
       </c>
       <c r="W31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X31" t="n">
         <v>15</v>
@@ -3951,7 +3951,7 @@
         <v>11</v>
       </c>
       <c r="AA31" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB31" t="n">
         <v>15</v>
@@ -3960,13 +3960,13 @@
         <v>51</v>
       </c>
       <c r="AD31" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG31" t="n">
         <v>13</v>
@@ -3975,10 +3975,10 @@
         <v>41</v>
       </c>
       <c r="AI31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ31" t="n">
         <v>34</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>41</v>
       </c>
     </row>
     <row r="32">
@@ -4200,7 +4200,7 @@
         <v>1.75</v>
       </c>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I34" t="n">
         <v>3.9</v>
@@ -4209,34 +4209,34 @@
         <v>1.03</v>
       </c>
       <c r="K34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L34" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M34" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N34" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O34" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S34" t="n">
         <v>2.2</v>
       </c>
-      <c r="P34" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2.1</v>
-      </c>
       <c r="T34" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U34" t="n">
         <v>9.5</v>
@@ -4269,7 +4269,7 @@
         <v>151</v>
       </c>
       <c r="AE34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF34" t="n">
         <v>23</v>
@@ -4284,7 +4284,7 @@
         <v>29</v>
       </c>
       <c r="AJ34" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
@@ -4834,7 +4834,7 @@
         <v>1.4</v>
       </c>
       <c r="P39" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Q39" t="n">
         <v>2.2</v>
@@ -4950,13 +4950,13 @@
         <v>3.5</v>
       </c>
       <c r="N40" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="O40" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="P40" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Q40" t="n">
         <v>3</v>
@@ -5140,7 +5140,7 @@
         <v>3.75</v>
       </c>
       <c r="P42" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="Q42" t="n">
         <v>5</v>
@@ -5244,10 +5244,10 @@
         <v>1.39</v>
       </c>
       <c r="J43" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K43" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="L43" t="n">
         <v>1.17</v>
@@ -5256,13 +5256,13 @@
         <v>4.5</v>
       </c>
       <c r="N43" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O43" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="P43" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="Q43" t="n">
         <v>3.5</v>
@@ -6426,10 +6426,10 @@
         <v>3.5</v>
       </c>
       <c r="N58" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O58" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P58" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-12.xlsx
@@ -778,13 +778,13 @@
         <v>3.6</v>
       </c>
       <c r="J3" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
@@ -802,10 +802,10 @@
         <v>3.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T3" t="n">
         <v>8.5</v>
@@ -814,10 +814,10 @@
         <v>10</v>
       </c>
       <c r="V3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X3" t="n">
         <v>15</v>
@@ -847,13 +847,13 @@
         <v>19</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
         <v>41</v>
       </c>
       <c r="AI3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ3" t="n">
         <v>34</v>
@@ -1022,13 +1022,13 @@
         <v>11</v>
       </c>
       <c r="J5" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K5" t="n">
         <v>11</v>
       </c>
       <c r="L5" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M5" t="n">
         <v>3.4</v>
@@ -1142,13 +1142,13 @@
         <v>3.3</v>
       </c>
       <c r="J6" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="K6" t="n">
         <v>6.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="M6" t="n">
         <v>2.2</v>
@@ -1262,13 +1262,13 @@
         <v>3.6</v>
       </c>
       <c r="J7" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="K7" t="n">
         <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
@@ -3427,10 +3427,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H27" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I27" t="n">
         <v>1.6</v>
@@ -3440,27 +3440,27 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="O27" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="P27" t="n">
         <v>1.39</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="U27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V27" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="W27" t="n">
         <v>65</v>
@@ -3472,13 +3472,13 @@
         <v>45</v>
       </c>
       <c r="Z27" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AA27" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC27" t="n">
         <v>65</v>
@@ -3493,7 +3493,7 @@
         <v>6.2</v>
       </c>
       <c r="AG27" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AH27" t="n">
         <v>9.75</v>
@@ -3891,13 +3891,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H31" t="n">
         <v>3.6</v>
       </c>
       <c r="I31" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J31" t="n">
         <v>1.05</v>
@@ -3924,16 +3924,16 @@
         <v>3</v>
       </c>
       <c r="R31" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T31" t="n">
         <v>7.5</v>
       </c>
       <c r="U31" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V31" t="n">
         <v>8.5</v>
@@ -3951,7 +3951,7 @@
         <v>11</v>
       </c>
       <c r="AA31" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB31" t="n">
         <v>15</v>
@@ -3963,10 +3963,10 @@
         <v>201</v>
       </c>
       <c r="AE31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG31" t="n">
         <v>13</v>
@@ -4319,13 +4319,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="H35" t="n">
         <v>4.75</v>
       </c>
       <c r="I35" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="J35" t="n">
         <v>1.03</v>
@@ -4334,22 +4334,22 @@
         <v>15</v>
       </c>
       <c r="L35" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M35" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="N35" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="O35" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="P35" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q35" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R35" t="n">
         <v>1.83</v>
@@ -4379,7 +4379,7 @@
         <v>15</v>
       </c>
       <c r="AA35" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB35" t="n">
         <v>19</v>
@@ -4391,7 +4391,7 @@
         <v>251</v>
       </c>
       <c r="AE35" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF35" t="n">
         <v>7.5</v>
@@ -4400,10 +4400,10 @@
         <v>8.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ35" t="n">
         <v>23</v>
@@ -5113,31 +5113,31 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="H42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J42" t="n">
         <v>1.01</v>
       </c>
       <c r="K42" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L42" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="M42" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="N42" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="O42" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P42" t="n">
         <v>1.14</v>
@@ -5161,7 +5161,7 @@
         <v>12</v>
       </c>
       <c r="W42" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X42" t="n">
         <v>11</v>
@@ -5182,10 +5182,10 @@
         <v>67</v>
       </c>
       <c r="AD42" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="AE42" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF42" t="n">
         <v>67</v>
@@ -5241,7 +5241,7 @@
         <v>5</v>
       </c>
       <c r="I43" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="J43" t="n">
         <v>1.03</v>
@@ -5256,10 +5256,10 @@
         <v>4.5</v>
       </c>
       <c r="N43" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="O43" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="P43" t="n">
         <v>1.29</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-12.xlsx
@@ -778,10 +778,10 @@
         <v>3.6</v>
       </c>
       <c r="J3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L3" t="n">
         <v>1.25</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="I4" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="J4" t="n">
         <v>1.03</v>
@@ -909,7 +909,7 @@
         <v>1.18</v>
       </c>
       <c r="M4" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="N4" t="n">
         <v>1.55</v>
@@ -918,22 +918,22 @@
         <v>2.35</v>
       </c>
       <c r="P4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S4" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="T4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="U4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V4" t="n">
         <v>13.5</v>
@@ -951,34 +951,34 @@
         <v>9.75</v>
       </c>
       <c r="AA4" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AB4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC4" t="n">
         <v>45</v>
       </c>
       <c r="AD4" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AE4" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF4" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AG4" t="n">
         <v>8.75</v>
       </c>
       <c r="AH4" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -1861,13 +1861,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="H13" t="n">
         <v>2.52</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J13" t="n">
         <v>1.13</v>
@@ -1888,7 +1888,7 @@
         <v>1.5</v>
       </c>
       <c r="P13" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Q13" t="n">
         <v>2.32</v>
@@ -1900,19 +1900,19 @@
         <v>1.8</v>
       </c>
       <c r="T13" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="U13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="V13" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="W13" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y13" t="n">
         <v>40</v>
@@ -1933,19 +1933,19 @@
         <v>800</v>
       </c>
       <c r="AE13" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AF13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG13" t="n">
         <v>10.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AI13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ13" t="n">
         <v>40</v>
@@ -2107,90 +2107,90 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M16" t="n">
         <v>2.65</v>
       </c>
       <c r="N16" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="O16" t="n">
         <v>1.6</v>
       </c>
       <c r="P16" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="R16" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S16" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="T16" t="n">
-        <v>8.5</v>
+        <v>7.1</v>
       </c>
       <c r="U16" t="n">
+        <v>11</v>
+      </c>
+      <c r="V16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W16" t="n">
+        <v>24</v>
+      </c>
+      <c r="X16" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB16" t="n">
         <v>15.5</v>
       </c>
-      <c r="V16" t="n">
-        <v>11</v>
-      </c>
-      <c r="W16" t="n">
+      <c r="AC16" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>40</v>
-      </c>
-      <c r="X16" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>75</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>700</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -2225,10 +2225,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="H17" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="I17" t="n">
         <v>3.15</v>
@@ -2236,40 +2236,40 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="M17" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="N17" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="O17" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P17" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="R17" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S17" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="T17" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="U17" t="n">
         <v>11</v>
       </c>
       <c r="V17" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X17" t="n">
         <v>22</v>
@@ -2278,20 +2278,22 @@
         <v>37</v>
       </c>
       <c r="Z17" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="AA17" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AB17" t="n">
         <v>16</v>
       </c>
       <c r="AC17" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD17" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>900</v>
+      </c>
       <c r="AE17" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AF17" t="n">
         <v>15</v>
@@ -2303,7 +2305,7 @@
         <v>45</v>
       </c>
       <c r="AI17" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ17" t="n">
         <v>50</v>
@@ -2716,10 +2718,10 @@
         <v>3.5</v>
       </c>
       <c r="J21" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L21" t="n">
         <v>1.3</v>
@@ -2728,10 +2730,10 @@
         <v>3.4</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O21" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P21" t="n">
         <v>1.4</v>
@@ -3085,7 +3087,7 @@
         <v>1.06</v>
       </c>
       <c r="K24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="L24" t="n">
         <v>1.33</v>
@@ -3478,7 +3480,7 @@
         <v>6.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC27" t="n">
         <v>65</v>
@@ -3493,7 +3495,7 @@
         <v>6.2</v>
       </c>
       <c r="AG27" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AH27" t="n">
         <v>9.75</v>
@@ -5356,36 +5358,88 @@
           <t>Al Taee</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
+      <c r="G44" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2.1</v>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.83</v>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="inlineStr"/>
-      <c r="AD44" t="inlineStr"/>
-      <c r="AE44" t="inlineStr"/>
-      <c r="AF44" t="inlineStr"/>
-      <c r="AG44" t="inlineStr"/>
-      <c r="AH44" t="inlineStr"/>
-      <c r="AI44" t="inlineStr"/>
-      <c r="AJ44" t="inlineStr"/>
+      <c r="R44" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2</v>
+      </c>
+      <c r="T44" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="U44" t="n">
+        <v>18</v>
+      </c>
+      <c r="V44" t="n">
+        <v>11</v>
+      </c>
+      <c r="W44" t="n">
+        <v>45</v>
+      </c>
+      <c r="X44" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5418,36 +5472,88 @@
           <t>Neom SC</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
+      <c r="G45" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H45" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2.18</v>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O45" t="n">
+        <v>2</v>
+      </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
-      <c r="AA45" t="inlineStr"/>
-      <c r="AB45" t="inlineStr"/>
-      <c r="AC45" t="inlineStr"/>
-      <c r="AD45" t="inlineStr"/>
-      <c r="AE45" t="inlineStr"/>
-      <c r="AF45" t="inlineStr"/>
-      <c r="AG45" t="inlineStr"/>
-      <c r="AH45" t="inlineStr"/>
-      <c r="AI45" t="inlineStr"/>
-      <c r="AJ45" t="inlineStr"/>
+      <c r="R45" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T45" t="n">
+        <v>11</v>
+      </c>
+      <c r="U45" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="W45" t="n">
+        <v>32</v>
+      </c>
+      <c r="X45" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -5480,36 +5586,88 @@
           <t>Al Jandal</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
+      <c r="G46" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H46" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5.8</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.88</v>
+      </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr"/>
-      <c r="AB46" t="inlineStr"/>
-      <c r="AC46" t="inlineStr"/>
-      <c r="AD46" t="inlineStr"/>
-      <c r="AE46" t="inlineStr"/>
-      <c r="AF46" t="inlineStr"/>
-      <c r="AG46" t="inlineStr"/>
-      <c r="AH46" t="inlineStr"/>
-      <c r="AI46" t="inlineStr"/>
-      <c r="AJ46" t="inlineStr"/>
+      <c r="R46" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T46" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="U46" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="V46" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W46" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="X46" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>800</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -5542,36 +5700,84 @@
           <t>Al Safa</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H47" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I47" t="n">
+        <v>21</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
+      <c r="N47" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="O47" t="n">
+        <v>2.4</v>
+      </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
-      <c r="AA47" t="inlineStr"/>
-      <c r="AB47" t="inlineStr"/>
-      <c r="AC47" t="inlineStr"/>
-      <c r="AD47" t="inlineStr"/>
-      <c r="AE47" t="inlineStr"/>
-      <c r="AF47" t="inlineStr"/>
-      <c r="AG47" t="inlineStr"/>
-      <c r="AH47" t="inlineStr"/>
-      <c r="AI47" t="inlineStr"/>
-      <c r="AJ47" t="inlineStr"/>
+      <c r="R47" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="T47" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="U47" t="n">
+        <v>6</v>
+      </c>
+      <c r="V47" t="n">
+        <v>10</v>
+      </c>
+      <c r="W47" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X47" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>250</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>70</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>600</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>450</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -5604,36 +5810,92 @@
           <t>Al Batin</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
+      <c r="G48" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3.8</v>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
-      <c r="AA48" t="inlineStr"/>
-      <c r="AB48" t="inlineStr"/>
-      <c r="AC48" t="inlineStr"/>
-      <c r="AD48" t="inlineStr"/>
-      <c r="AE48" t="inlineStr"/>
-      <c r="AF48" t="inlineStr"/>
-      <c r="AG48" t="inlineStr"/>
-      <c r="AH48" t="inlineStr"/>
-      <c r="AI48" t="inlineStr"/>
-      <c r="AJ48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T48" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="U48" t="n">
+        <v>9</v>
+      </c>
+      <c r="V48" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W48" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="X48" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>450</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -5666,36 +5928,82 @@
           <t>Ohod</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
+      <c r="G49" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H49" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>14</v>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
+      <c r="N49" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O49" t="n">
+        <v>2.12</v>
+      </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
-      <c r="AA49" t="inlineStr"/>
-      <c r="AB49" t="inlineStr"/>
-      <c r="AC49" t="inlineStr"/>
+      <c r="R49" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T49" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="U49" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="V49" t="n">
+        <v>9</v>
+      </c>
+      <c r="W49" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="X49" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>120</v>
+      </c>
       <c r="AD49" t="inlineStr"/>
-      <c r="AE49" t="inlineStr"/>
-      <c r="AF49" t="inlineStr"/>
-      <c r="AG49" t="inlineStr"/>
-      <c r="AH49" t="inlineStr"/>
-      <c r="AI49" t="inlineStr"/>
-      <c r="AJ49" t="inlineStr"/>
+      <c r="AE49" t="n">
+        <v>37</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>700</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>250</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5728,36 +6036,90 @@
           <t>Al Bukiryah</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
+      <c r="G50" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H50" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.1</v>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
-      <c r="AA50" t="inlineStr"/>
-      <c r="AB50" t="inlineStr"/>
-      <c r="AC50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T50" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U50" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="W50" t="n">
+        <v>50</v>
+      </c>
+      <c r="X50" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>100</v>
+      </c>
       <c r="AD50" t="inlineStr"/>
-      <c r="AE50" t="inlineStr"/>
-      <c r="AF50" t="inlineStr"/>
-      <c r="AG50" t="inlineStr"/>
-      <c r="AH50" t="inlineStr"/>
-      <c r="AI50" t="inlineStr"/>
-      <c r="AJ50" t="inlineStr"/>
+      <c r="AE50" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5790,36 +6152,92 @@
           <t>Al Ain</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
+      <c r="G51" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I51" t="n">
+        <v>4.2</v>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
-      <c r="AA51" t="inlineStr"/>
-      <c r="AB51" t="inlineStr"/>
-      <c r="AC51" t="inlineStr"/>
-      <c r="AD51" t="inlineStr"/>
-      <c r="AE51" t="inlineStr"/>
-      <c r="AF51" t="inlineStr"/>
-      <c r="AG51" t="inlineStr"/>
-      <c r="AH51" t="inlineStr"/>
-      <c r="AI51" t="inlineStr"/>
-      <c r="AJ51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="N51" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="T51" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="U51" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="V51" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W51" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="X51" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5852,36 +6270,92 @@
           <t>Al Arabi</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
+      <c r="G52" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1.95</v>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="inlineStr"/>
-      <c r="AA52" t="inlineStr"/>
-      <c r="AB52" t="inlineStr"/>
-      <c r="AC52" t="inlineStr"/>
-      <c r="AD52" t="inlineStr"/>
-      <c r="AE52" t="inlineStr"/>
-      <c r="AF52" t="inlineStr"/>
-      <c r="AG52" t="inlineStr"/>
-      <c r="AH52" t="inlineStr"/>
-      <c r="AI52" t="inlineStr"/>
-      <c r="AJ52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T52" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="U52" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>12</v>
+      </c>
+      <c r="W52" t="n">
+        <v>50</v>
+      </c>
+      <c r="X52" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -6161,13 +6635,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H56" t="n">
         <v>3.3</v>
       </c>
       <c r="I56" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J56" t="n">
         <v>1.06</v>
@@ -6182,22 +6656,22 @@
         <v>3.25</v>
       </c>
       <c r="N56" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="O56" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="P56" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q56" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R56" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S56" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="T56" t="n">
         <v>7.5</v>
@@ -6218,7 +6692,7 @@
         <v>29</v>
       </c>
       <c r="Z56" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA56" t="n">
         <v>6.5</v>
@@ -6230,7 +6704,7 @@
         <v>51</v>
       </c>
       <c r="AD56" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE56" t="n">
         <v>9</v>
@@ -6405,13 +6879,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H58" t="n">
         <v>3.5</v>
       </c>
       <c r="I58" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J58" t="n">
         <v>1.05</v>
@@ -6420,16 +6894,16 @@
         <v>11</v>
       </c>
       <c r="L58" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M58" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N58" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O58" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P58" t="n">
         <v>1.36</v>
@@ -6447,10 +6921,10 @@
         <v>7.5</v>
       </c>
       <c r="U58" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="V58" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W58" t="n">
         <v>17</v>
@@ -6474,13 +6948,13 @@
         <v>51</v>
       </c>
       <c r="AD58" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE58" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF58" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG58" t="n">
         <v>13</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-12.xlsx
@@ -775,13 +775,13 @@
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L3" t="n">
         <v>1.25</v>
@@ -802,10 +802,10 @@
         <v>3.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T3" t="n">
         <v>8.5</v>
@@ -814,10 +814,10 @@
         <v>10</v>
       </c>
       <c r="V3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X3" t="n">
         <v>15</v>
@@ -853,7 +853,7 @@
         <v>41</v>
       </c>
       <c r="AI3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ3" t="n">
         <v>34</v>
@@ -1142,10 +1142,10 @@
         <v>3.3</v>
       </c>
       <c r="J6" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
         <v>1.62</v>
@@ -1196,10 +1196,10 @@
         <v>6.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="n">
@@ -1262,10 +1262,10 @@
         <v>3.6</v>
       </c>
       <c r="J7" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.73</v>
@@ -1382,10 +1382,10 @@
         <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="K8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L8" t="n">
         <v>1.5</v>
@@ -1406,13 +1406,13 @@
         <v>2.38</v>
       </c>
       <c r="R8" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S8" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="U8" t="n">
         <v>8</v>
@@ -1430,7 +1430,7 @@
         <v>41</v>
       </c>
       <c r="Z8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA8" t="n">
         <v>6</v>
@@ -1617,19 +1617,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H11" t="n">
         <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J11" t="n">
         <v>1.08</v>
       </c>
       <c r="K11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.44</v>
@@ -1686,10 +1686,10 @@
         <v>67</v>
       </c>
       <c r="AD11" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AE11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF11" t="n">
         <v>21</v>
@@ -2107,13 +2107,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H16" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -2121,19 +2121,19 @@
         <v>1.36</v>
       </c>
       <c r="M16" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="N16" t="n">
         <v>2.05</v>
       </c>
       <c r="O16" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P16" t="n">
         <v>1.45</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="R16" t="n">
         <v>1.83</v>
@@ -2145,7 +2145,7 @@
         <v>7.1</v>
       </c>
       <c r="U16" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="V16" t="n">
         <v>9.5</v>
@@ -2160,25 +2160,25 @@
         <v>35</v>
       </c>
       <c r="Z16" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB16" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC16" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD16" t="n">
         <v>800</v>
       </c>
       <c r="AE16" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AF16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AG16" t="n">
         <v>10.5</v>
@@ -2225,36 +2225,36 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="H17" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="I17" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="M17" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N17" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="O17" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="P17" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R17" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S17" t="n">
         <v>1.72</v>
@@ -2266,25 +2266,25 @@
         <v>11</v>
       </c>
       <c r="V17" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y17" t="n">
         <v>37</v>
       </c>
       <c r="Z17" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AA17" t="n">
         <v>5.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC17" t="n">
         <v>90</v>
@@ -2293,22 +2293,22 @@
         <v>900</v>
       </c>
       <c r="AE17" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="AF17" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AH17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>45</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>35</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>50</v>
       </c>
     </row>
     <row r="18">
@@ -2718,10 +2718,10 @@
         <v>3.5</v>
       </c>
       <c r="J21" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L21" t="n">
         <v>1.3</v>
@@ -2742,16 +2742,16 @@
         <v>2.75</v>
       </c>
       <c r="R21" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S21" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="T21" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V21" t="n">
         <v>9</v>
@@ -2763,7 +2763,7 @@
         <v>17</v>
       </c>
       <c r="Y21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z21" t="n">
         <v>10</v>
@@ -2781,7 +2781,7 @@
         <v>251</v>
       </c>
       <c r="AE21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF21" t="n">
         <v>19</v>
@@ -2796,7 +2796,7 @@
         <v>29</v>
       </c>
       <c r="AJ21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -3432,26 +3432,26 @@
         <v>4.8</v>
       </c>
       <c r="H27" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I27" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="O27" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P27" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
@@ -3474,13 +3474,13 @@
         <v>45</v>
       </c>
       <c r="Z27" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA27" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC27" t="n">
         <v>65</v>
@@ -3489,22 +3489,22 @@
         <v>500</v>
       </c>
       <c r="AE27" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AF27" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AG27" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AH27" t="n">
         <v>9.75</v>
       </c>
       <c r="AI27" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AJ27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
@@ -3816,7 +3816,7 @@
         <v>41</v>
       </c>
       <c r="V30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="W30" t="n">
         <v>81</v>
@@ -3849,13 +3849,13 @@
         <v>8.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH30" t="n">
         <v>10</v>
       </c>
       <c r="AI30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ30" t="n">
         <v>21</v>
@@ -3908,16 +3908,16 @@
         <v>11</v>
       </c>
       <c r="L31" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M31" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N31" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="O31" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="P31" t="n">
         <v>1.36</v>
@@ -3926,16 +3926,16 @@
         <v>3</v>
       </c>
       <c r="R31" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S31" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T31" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U31" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="V31" t="n">
         <v>8.5</v>
@@ -3953,13 +3953,13 @@
         <v>11</v>
       </c>
       <c r="AA31" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB31" t="n">
         <v>15</v>
       </c>
       <c r="AC31" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD31" t="n">
         <v>201</v>
@@ -3977,7 +3977,7 @@
         <v>41</v>
       </c>
       <c r="AI31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ31" t="n">
         <v>34</v>
@@ -5237,13 +5237,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H43" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I43" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="J43" t="n">
         <v>1.03</v>
@@ -5270,22 +5270,22 @@
         <v>3.5</v>
       </c>
       <c r="R43" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S43" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T43" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="U43" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="V43" t="n">
         <v>17</v>
       </c>
       <c r="W43" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="X43" t="n">
         <v>41</v>
@@ -5297,10 +5297,10 @@
         <v>17</v>
       </c>
       <c r="AA43" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC43" t="n">
         <v>51</v>
@@ -5309,22 +5309,22 @@
         <v>151</v>
       </c>
       <c r="AE43" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF43" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>8</v>
       </c>
       <c r="AG43" t="n">
         <v>8.5</v>
       </c>
       <c r="AH43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI43" t="n">
         <v>12</v>
       </c>
       <c r="AJ43" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
@@ -5359,86 +5359,86 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H44" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="I44" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="M44" t="n">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="N44" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="O44" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S44" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="T44" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="U44" t="n">
         <v>18</v>
       </c>
       <c r="V44" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="W44" t="n">
         <v>45</v>
       </c>
       <c r="X44" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y44" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z44" t="n">
-        <v>10.5</v>
+        <v>9.25</v>
       </c>
       <c r="AA44" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AB44" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD44" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AE44" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="AF44" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AG44" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH44" t="n">
         <v>20</v>
       </c>
       <c r="AI44" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AJ44" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
@@ -5473,44 +5473,44 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="H45" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="I45" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="M45" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="N45" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O45" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S45" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="T45" t="n">
-        <v>11</v>
+        <v>9.75</v>
       </c>
       <c r="U45" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="V45" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="W45" t="n">
         <v>32</v>
@@ -5519,40 +5519,40 @@
         <v>22</v>
       </c>
       <c r="Y45" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Z45" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB45" t="n">
         <v>13.5</v>
       </c>
-      <c r="AA45" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>13</v>
-      </c>
       <c r="AC45" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD45" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AE45" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AF45" t="n">
         <v>11.75</v>
       </c>
       <c r="AG45" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AH45" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI45" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
@@ -5587,10 +5587,10 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="H46" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="I46" t="n">
         <v>5.8</v>
@@ -5598,60 +5598,60 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="M46" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="N46" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="O46" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S46" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T46" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="U46" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="V46" t="n">
         <v>8.25</v>
       </c>
       <c r="W46" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="X46" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z46" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AA46" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB46" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC46" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD46" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE46" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF46" t="n">
         <v>35</v>
@@ -5701,10 +5701,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="H47" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="I47" t="n">
         <v>21</v>
@@ -5714,54 +5714,54 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="O47" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S47" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="T47" t="n">
-        <v>7.9</v>
+        <v>6.8</v>
       </c>
       <c r="U47" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="V47" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W47" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X47" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y47" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Z47" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA47" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AB47" t="n">
         <v>32</v>
       </c>
       <c r="AC47" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AD47" t="n">
         <v>900</v>
       </c>
       <c r="AE47" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF47" t="n">
         <v>250</v>
@@ -5773,10 +5773,10 @@
         <v>600</v>
       </c>
       <c r="AI47" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AJ47" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48">
@@ -5814,24 +5814,24 @@
         <v>1.9</v>
       </c>
       <c r="H48" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I48" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="M48" t="n">
-        <v>3.05</v>
+        <v>2.87</v>
       </c>
       <c r="N48" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="O48" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="P48" t="n">
         <v>1.39</v>
@@ -5840,61 +5840,61 @@
         <v>2.55</v>
       </c>
       <c r="R48" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S48" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="T48" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="U48" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="V48" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W48" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="X48" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z48" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AA48" t="n">
         <v>6.5</v>
       </c>
       <c r="AB48" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AD48" t="n">
-        <v>450</v>
+        <v>700</v>
       </c>
       <c r="AE48" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AF48" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AG48" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH48" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI48" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ48" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49">
@@ -5932,34 +5932,38 @@
         <v>1.22</v>
       </c>
       <c r="H49" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="I49" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3.6</v>
+      </c>
       <c r="N49" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O49" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="S49" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="T49" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="U49" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="V49" t="n">
         <v>9</v>
@@ -5968,22 +5972,22 @@
         <v>6.9</v>
       </c>
       <c r="X49" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="Y49" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Z49" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AA49" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AB49" t="n">
         <v>27</v>
       </c>
       <c r="AC49" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD49" t="inlineStr"/>
       <c r="AE49" t="n">
@@ -5996,7 +6000,7 @@
         <v>45</v>
       </c>
       <c r="AH49" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AI49" t="n">
         <v>250</v>
@@ -6037,13 +6041,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H50" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I50" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -6051,13 +6055,13 @@
         <v>1.42</v>
       </c>
       <c r="M50" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="N50" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="O50" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P50" t="n">
         <v>1.47</v>
@@ -6072,50 +6076,50 @@
         <v>1.65</v>
       </c>
       <c r="T50" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="U50" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="V50" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="W50" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="X50" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="Y50" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Z50" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AA50" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AB50" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC50" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD50" t="inlineStr"/>
       <c r="AE50" t="n">
         <v>5.9</v>
       </c>
       <c r="AF50" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG50" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AH50" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AI50" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ50" t="n">
         <v>37</v>
@@ -6156,39 +6160,39 @@
         <v>1.8</v>
       </c>
       <c r="H51" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I51" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M51" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="N51" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="O51" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="P51" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="R51" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S51" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T51" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="U51" t="n">
         <v>7.8</v>
@@ -6206,16 +6210,16 @@
         <v>32</v>
       </c>
       <c r="Z51" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA51" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB51" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC51" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD51" t="n">
         <v>900</v>
@@ -6224,13 +6228,13 @@
         <v>10.25</v>
       </c>
       <c r="AF51" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG51" t="n">
         <v>14.5</v>
       </c>
       <c r="AH51" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AI51" t="n">
         <v>45</v>
@@ -6388,36 +6392,96 @@
           <t>IMT Novi Beograd</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr"/>
-      <c r="AA53" t="inlineStr"/>
-      <c r="AB53" t="inlineStr"/>
-      <c r="AC53" t="inlineStr"/>
-      <c r="AD53" t="inlineStr"/>
-      <c r="AE53" t="inlineStr"/>
-      <c r="AF53" t="inlineStr"/>
-      <c r="AG53" t="inlineStr"/>
-      <c r="AH53" t="inlineStr"/>
-      <c r="AI53" t="inlineStr"/>
-      <c r="AJ53" t="inlineStr"/>
+      <c r="G53" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K53" t="n">
+        <v>7</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T53" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="U53" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W53" t="n">
+        <v>21</v>
+      </c>
+      <c r="X53" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -6450,36 +6514,96 @@
           <t>Napredak</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
-      <c r="AA54" t="inlineStr"/>
-      <c r="AB54" t="inlineStr"/>
-      <c r="AC54" t="inlineStr"/>
-      <c r="AD54" t="inlineStr"/>
-      <c r="AE54" t="inlineStr"/>
-      <c r="AF54" t="inlineStr"/>
-      <c r="AG54" t="inlineStr"/>
-      <c r="AH54" t="inlineStr"/>
-      <c r="AI54" t="inlineStr"/>
-      <c r="AJ54" t="inlineStr"/>
+      <c r="G54" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K54" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="N54" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="T54" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="U54" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="V54" t="n">
+        <v>9</v>
+      </c>
+      <c r="W54" t="n">
+        <v>21</v>
+      </c>
+      <c r="X54" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>700</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -6522,13 +6646,13 @@
         <v>5</v>
       </c>
       <c r="J55" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K55" t="n">
         <v>9</v>
       </c>
       <c r="L55" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
@@ -6635,31 +6759,31 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H56" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I56" t="n">
         <v>3</v>
       </c>
       <c r="J56" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K56" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L56" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="M56" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N56" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O56" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="P56" t="n">
         <v>1.4</v>
@@ -6674,7 +6798,7 @@
         <v>1.95</v>
       </c>
       <c r="T56" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="U56" t="n">
         <v>11</v>
@@ -6719,7 +6843,7 @@
         <v>34</v>
       </c>
       <c r="AI56" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ56" t="n">
         <v>34</v>
@@ -6894,16 +7018,16 @@
         <v>11</v>
       </c>
       <c r="L58" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M58" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N58" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O58" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P58" t="n">
         <v>1.36</v>
@@ -7001,10 +7125,10 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H59" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="I59" t="n">
         <v>2.37</v>
@@ -7016,77 +7140,77 @@
         <v>4.5</v>
       </c>
       <c r="L59" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="M59" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="N59" t="n">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="O59" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="P59" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="Q59" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="R59" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="S59" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T59" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="U59" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="V59" t="n">
         <v>12.5</v>
       </c>
       <c r="W59" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X59" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Y59" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Z59" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="AA59" t="n">
         <v>6.1</v>
       </c>
       <c r="AB59" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC59" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AD59" t="inlineStr"/>
       <c r="AE59" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AF59" t="n">
         <v>9.75</v>
       </c>
       <c r="AG59" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AH59" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI59" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AJ59" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60">
@@ -7120,36 +7244,96 @@
           <t>Khorfakkan</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="inlineStr"/>
-      <c r="AB60" t="inlineStr"/>
-      <c r="AC60" t="inlineStr"/>
-      <c r="AD60" t="inlineStr"/>
-      <c r="AE60" t="inlineStr"/>
-      <c r="AF60" t="inlineStr"/>
-      <c r="AG60" t="inlineStr"/>
-      <c r="AH60" t="inlineStr"/>
-      <c r="AI60" t="inlineStr"/>
-      <c r="AJ60" t="inlineStr"/>
+      <c r="G60" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K60" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O60" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T60" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="U60" t="n">
+        <v>13</v>
+      </c>
+      <c r="V60" t="n">
+        <v>9</v>
+      </c>
+      <c r="W60" t="n">
+        <v>25</v>
+      </c>
+      <c r="X60" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -7182,36 +7366,96 @@
           <t>Al Wahda</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
-      <c r="AA61" t="inlineStr"/>
-      <c r="AB61" t="inlineStr"/>
-      <c r="AC61" t="inlineStr"/>
-      <c r="AD61" t="inlineStr"/>
-      <c r="AE61" t="inlineStr"/>
-      <c r="AF61" t="inlineStr"/>
-      <c r="AG61" t="inlineStr"/>
-      <c r="AH61" t="inlineStr"/>
-      <c r="AI61" t="inlineStr"/>
-      <c r="AJ61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H61" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K61" t="n">
+        <v>9</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O61" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S61" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T61" t="n">
+        <v>17</v>
+      </c>
+      <c r="U61" t="n">
+        <v>32</v>
+      </c>
+      <c r="V61" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="W61" t="n">
+        <v>90</v>
+      </c>
+      <c r="X61" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -7244,36 +7488,96 @@
           <t>Al Ain</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr"/>
-      <c r="AA62" t="inlineStr"/>
-      <c r="AB62" t="inlineStr"/>
-      <c r="AC62" t="inlineStr"/>
-      <c r="AD62" t="inlineStr"/>
-      <c r="AE62" t="inlineStr"/>
-      <c r="AF62" t="inlineStr"/>
-      <c r="AG62" t="inlineStr"/>
-      <c r="AH62" t="inlineStr"/>
-      <c r="AI62" t="inlineStr"/>
-      <c r="AJ62" t="inlineStr"/>
+      <c r="G62" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H62" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K62" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O62" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="T62" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="U62" t="n">
+        <v>13</v>
+      </c>
+      <c r="V62" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W62" t="n">
+        <v>23</v>
+      </c>
+      <c r="X62" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-05-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-12.xlsx
@@ -778,10 +778,10 @@
         <v>3.7</v>
       </c>
       <c r="J3" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L3" t="n">
         <v>1.25</v>
@@ -894,7 +894,7 @@
         <v>3.7</v>
       </c>
       <c r="H4" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I4" t="n">
         <v>1.85</v>
@@ -903,82 +903,82 @@
         <v>1.03</v>
       </c>
       <c r="K4" t="n">
-        <v>9.75</v>
+        <v>17</v>
       </c>
       <c r="L4" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M4" t="n">
-        <v>4.45</v>
+        <v>5</v>
       </c>
       <c r="N4" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="O4" t="n">
         <v>2.35</v>
       </c>
       <c r="P4" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="T4" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="U4" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="V4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="W4" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="X4" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="Y4" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.75</v>
+        <v>17</v>
       </c>
       <c r="AA4" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI4" t="n">
         <v>13</v>
       </c>
-      <c r="AC4" t="n">
-        <v>45</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>250</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>14</v>
-      </c>
       <c r="AJ4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -2107,13 +2107,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.35</v>
+        <v>2.52</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>2.77</v>
+        <v>2.57</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -2142,22 +2142,22 @@
         <v>1.78</v>
       </c>
       <c r="T16" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="U16" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="V16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W16" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="X16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y16" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z16" t="n">
         <v>8.5</v>
@@ -2175,22 +2175,22 @@
         <v>800</v>
       </c>
       <c r="AE16" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG16" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH16" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AI16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ16" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
@@ -2590,91 +2590,91 @@
         <v>1.87</v>
       </c>
       <c r="H20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="J20" t="n">
         <v>1.05</v>
       </c>
       <c r="K20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T20" t="n">
         <v>8.25</v>
       </c>
-      <c r="L20" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M20" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T20" t="n">
-        <v>7.6</v>
-      </c>
       <c r="U20" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="V20" t="n">
         <v>8.75</v>
       </c>
       <c r="W20" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="X20" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Z20" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AB20" t="n">
         <v>14</v>
       </c>
       <c r="AC20" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD20" t="n">
         <v>400</v>
       </c>
       <c r="AE20" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG20" t="n">
         <v>13.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI20" t="n">
         <v>37</v>
       </c>
       <c r="AJ20" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -3087,7 +3087,7 @@
         <v>1.06</v>
       </c>
       <c r="K24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="L24" t="n">
         <v>1.33</v>
@@ -3429,10 +3429,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H27" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="I27" t="n">
         <v>1.62</v>
@@ -3442,69 +3442,69 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="O27" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="P27" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.42</v>
+        <v>2.25</v>
       </c>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="U27" t="n">
         <v>21</v>
       </c>
       <c r="V27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="W27" t="n">
         <v>65</v>
       </c>
       <c r="X27" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Y27" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="Z27" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB27" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AD27" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE27" t="n">
-        <v>5.4</v>
+        <v>4.65</v>
       </c>
       <c r="AF27" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="AG27" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AH27" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AJ27" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
@@ -4464,10 +4464,10 @@
         <v>3.5</v>
       </c>
       <c r="N36" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O36" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P36" t="n">
         <v>1.36</v>
@@ -5115,7 +5115,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="H42" t="n">
         <v>11</v>
@@ -5127,7 +5127,7 @@
         <v>1.01</v>
       </c>
       <c r="K42" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="L42" t="n">
         <v>1.06</v>
@@ -5154,7 +5154,7 @@
         <v>1.8</v>
       </c>
       <c r="T42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U42" t="n">
         <v>8.5</v>
@@ -5163,7 +5163,7 @@
         <v>12</v>
       </c>
       <c r="W42" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X42" t="n">
         <v>11</v>
@@ -5187,7 +5187,7 @@
         <v>700</v>
       </c>
       <c r="AE42" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF42" t="n">
         <v>67</v>
@@ -5199,7 +5199,7 @@
         <v>151</v>
       </c>
       <c r="AI42" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AJ42" t="n">
         <v>51</v>
@@ -5246,10 +5246,10 @@
         <v>1.48</v>
       </c>
       <c r="J43" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="K43" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="L43" t="n">
         <v>1.17</v>
@@ -5309,10 +5309,10 @@
         <v>151</v>
       </c>
       <c r="AE43" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF43" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG43" t="n">
         <v>8.5</v>
@@ -5359,71 +5359,75 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H44" t="n">
         <v>3.15</v>
       </c>
       <c r="I44" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="M44" t="n">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="N44" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="O44" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
+        <v>1.65</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.55</v>
+      </c>
       <c r="R44" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="S44" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="T44" t="n">
-        <v>10.25</v>
+        <v>8.75</v>
       </c>
       <c r="U44" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="V44" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="W44" t="n">
         <v>45</v>
       </c>
       <c r="X44" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Y44" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Z44" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="AA44" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB44" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AD44" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="AE44" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AF44" t="n">
         <v>10.25</v>
@@ -5432,13 +5436,13 @@
         <v>8.75</v>
       </c>
       <c r="AH44" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI44" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AJ44" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
@@ -5473,86 +5477,86 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.72</v>
+        <v>2.6</v>
       </c>
       <c r="H45" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I45" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M45" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="N45" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O45" t="n">
         <v>1.75</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.85</v>
       </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S45" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="T45" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="U45" t="n">
+        <v>13</v>
+      </c>
+      <c r="V45" t="n">
         <v>9.75</v>
       </c>
-      <c r="U45" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="V45" t="n">
-        <v>10</v>
-      </c>
       <c r="W45" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="X45" t="n">
         <v>22</v>
       </c>
       <c r="Y45" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z45" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="AA45" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AB45" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC45" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AD45" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AE45" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF45" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AG45" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AH45" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI45" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ45" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
@@ -5590,7 +5594,7 @@
         <v>1.5</v>
       </c>
       <c r="H46" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="I46" t="n">
         <v>5.8</v>
@@ -5598,75 +5602,79 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M46" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="N46" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O46" t="n">
         <v>1.78</v>
       </c>
-      <c r="O46" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
+      <c r="P46" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2.6</v>
+      </c>
       <c r="R46" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S46" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="T46" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="U46" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="V46" t="n">
         <v>8.25</v>
       </c>
       <c r="W46" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="X46" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z46" t="n">
         <v>10</v>
       </c>
-      <c r="X46" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>10.75</v>
-      </c>
       <c r="AA46" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AB46" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC46" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AD46" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AE46" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF46" t="n">
         <v>35</v>
       </c>
       <c r="AG46" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AH46" t="n">
         <v>120</v>
       </c>
       <c r="AI46" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AJ46" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47">
@@ -5701,58 +5709,62 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="H47" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="I47" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3.55</v>
+      </c>
       <c r="N47" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="O47" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="S47" t="n">
         <v>1.5</v>
       </c>
       <c r="T47" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="U47" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="V47" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="W47" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X47" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y47" t="n">
         <v>37</v>
       </c>
       <c r="Z47" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AA47" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AB47" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC47" t="n">
         <v>175</v>
@@ -5761,22 +5773,22 @@
         <v>900</v>
       </c>
       <c r="AE47" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>175</v>
+      </c>
+      <c r="AG47" t="n">
         <v>55</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>250</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>70</v>
       </c>
       <c r="AH47" t="n">
         <v>600</v>
       </c>
       <c r="AI47" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AJ47" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48">
@@ -5811,90 +5823,90 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="H48" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I48" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M48" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="N48" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="O48" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P48" t="n">
         <v>1.39</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="R48" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S48" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="T48" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="U48" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="V48" t="n">
         <v>8.5</v>
       </c>
       <c r="W48" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="X48" t="n">
         <v>15.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z48" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA48" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AB48" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AD48" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE48" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AF48" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AG48" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI48" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ48" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49">
@@ -5929,41 +5941,41 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="H49" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="I49" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="M49" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="N49" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="O49" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S49" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="T49" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="U49" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="V49" t="n">
         <v>9</v>
@@ -5972,38 +5984,38 @@
         <v>6.9</v>
       </c>
       <c r="X49" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="Y49" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z49" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="AA49" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AB49" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC49" t="n">
         <v>150</v>
       </c>
       <c r="AD49" t="inlineStr"/>
       <c r="AE49" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AF49" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AG49" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AH49" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="AI49" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AJ49" t="n">
         <v>150</v>
@@ -6041,51 +6053,51 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="H50" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I50" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M50" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="N50" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O50" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="P50" t="n">
         <v>1.47</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="R50" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S50" t="n">
         <v>1.65</v>
       </c>
       <c r="T50" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="U50" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V50" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="W50" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="X50" t="n">
         <v>45</v>
@@ -6094,32 +6106,32 @@
         <v>60</v>
       </c>
       <c r="Z50" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AA50" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AB50" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AC50" t="n">
         <v>110</v>
       </c>
       <c r="AD50" t="inlineStr"/>
       <c r="AE50" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AF50" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="AG50" t="n">
         <v>8.75</v>
       </c>
       <c r="AH50" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI50" t="n">
         <v>17</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>18</v>
       </c>
       <c r="AJ50" t="n">
         <v>37</v>
@@ -6157,10 +6169,10 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="H51" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I51" t="n">
         <v>4.3</v>
@@ -6168,37 +6180,37 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M51" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="N51" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="O51" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="P51" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.47</v>
+        <v>2.57</v>
       </c>
       <c r="R51" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S51" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T51" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="U51" t="n">
         <v>7.8</v>
       </c>
       <c r="V51" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W51" t="n">
         <v>14.5</v>
@@ -6207,40 +6219,40 @@
         <v>15.5</v>
       </c>
       <c r="Y51" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z51" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="AA51" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AB51" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC51" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD51" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AE51" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AF51" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG51" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH51" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AI51" t="n">
         <v>45</v>
       </c>
       <c r="AJ51" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52">
@@ -6393,94 +6405,94 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="H53" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I53" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J53" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K53" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="L53" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="M53" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N53" t="n">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="O53" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="P53" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="R53" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="S53" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="T53" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="U53" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="V53" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W53" t="n">
         <v>21</v>
       </c>
       <c r="X53" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y53" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Z53" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AA53" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AB53" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AC53" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AD53" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="AE53" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AF53" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG53" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AH53" t="n">
         <v>45</v>
       </c>
       <c r="AI53" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ53" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54">
@@ -6515,19 +6527,19 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="H54" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="I54" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J54" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K54" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="L54" t="n">
         <v>1.39</v>
@@ -6548,43 +6560,43 @@
         <v>2.42</v>
       </c>
       <c r="R54" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="S54" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="T54" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="U54" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="V54" t="n">
         <v>9</v>
       </c>
       <c r="W54" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="X54" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y54" t="n">
         <v>35</v>
       </c>
       <c r="Z54" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AA54" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AB54" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC54" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD54" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AE54" t="n">
         <v>8.75</v>
@@ -6593,16 +6605,16 @@
         <v>16.5</v>
       </c>
       <c r="AG54" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH54" t="n">
         <v>45</v>
       </c>
       <c r="AI54" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ54" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55">
@@ -6637,7 +6649,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H55" t="n">
         <v>3.4</v>
@@ -6646,13 +6658,13 @@
         <v>5</v>
       </c>
       <c r="J55" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K55" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L55" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
@@ -6670,10 +6682,10 @@
         <v>2.63</v>
       </c>
       <c r="R55" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S55" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T55" t="n">
         <v>6</v>
@@ -6688,7 +6700,7 @@
         <v>13</v>
       </c>
       <c r="X55" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y55" t="n">
         <v>34</v>
@@ -6768,13 +6780,13 @@
         <v>3</v>
       </c>
       <c r="J56" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K56" t="n">
         <v>11</v>
       </c>
       <c r="L56" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M56" t="n">
         <v>3.4</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-12.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J2" t="n">
         <v>1.08</v>
@@ -674,10 +674,10 @@
         <v>1.67</v>
       </c>
       <c r="P2" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="R2" t="n">
         <v>1.91</v>
@@ -698,7 +698,7 @@
         <v>29</v>
       </c>
       <c r="X2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y2" t="n">
         <v>34</v>
@@ -728,7 +728,7 @@
         <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI2" t="n">
         <v>21</v>
@@ -790,13 +790,13 @@
         <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="O3" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="P3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q3" t="n">
         <v>3.25</v>
@@ -900,22 +900,22 @@
         <v>1.85</v>
       </c>
       <c r="J4" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K4" t="n">
         <v>17</v>
       </c>
       <c r="L4" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N4" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O4" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="P4" t="n">
         <v>1.29</v>
@@ -1022,22 +1022,22 @@
         <v>11</v>
       </c>
       <c r="J5" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K5" t="n">
         <v>11</v>
       </c>
       <c r="L5" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M5" t="n">
         <v>3.4</v>
       </c>
       <c r="N5" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="O5" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="P5" t="n">
         <v>1.4</v>
@@ -1142,13 +1142,13 @@
         <v>3.3</v>
       </c>
       <c r="J6" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="K6" t="n">
         <v>6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="M6" t="n">
         <v>2.2</v>
@@ -1629,7 +1629,7 @@
         <v>1.08</v>
       </c>
       <c r="K11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L11" t="n">
         <v>1.44</v>
@@ -2465,91 +2465,91 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.05</v>
+        <v>2.77</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I19" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="J19" t="n">
         <v>1.07</v>
       </c>
       <c r="K19" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="M19" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="N19" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="O19" t="n">
         <v>1.75</v>
       </c>
       <c r="P19" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="R19" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="S19" t="n">
         <v>1.9</v>
       </c>
       <c r="T19" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="U19" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="V19" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="W19" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="X19" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Y19" t="n">
         <v>40</v>
       </c>
       <c r="Z19" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AA19" t="n">
         <v>6.8</v>
       </c>
       <c r="AB19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC19" t="n">
         <v>80</v>
       </c>
       <c r="AD19" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AE19" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AF19" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AG19" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI19" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ19" t="n">
         <v>35</v>
@@ -2840,10 +2840,10 @@
         <v>3.1</v>
       </c>
       <c r="J22" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L22" t="n">
         <v>1.33</v>
@@ -2852,10 +2852,10 @@
         <v>3.25</v>
       </c>
       <c r="N22" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O22" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="P22" t="n">
         <v>1.44</v>
@@ -3096,10 +3096,10 @@
         <v>3.4</v>
       </c>
       <c r="N24" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O24" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P24" t="n">
         <v>1.4</v>
@@ -3218,7 +3218,7 @@
         <v>5</v>
       </c>
       <c r="N25" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O25" t="n">
         <v>2.3</v>
@@ -3429,13 +3429,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="H27" t="n">
         <v>3.4</v>
       </c>
       <c r="I27" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -3456,10 +3456,10 @@
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="U27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V27" t="n">
         <v>14</v>
@@ -3489,16 +3489,16 @@
         <v>450</v>
       </c>
       <c r="AE27" t="n">
-        <v>4.65</v>
+        <v>4.7</v>
       </c>
       <c r="AF27" t="n">
         <v>5.7</v>
       </c>
       <c r="AG27" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AH27" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AI27" t="n">
         <v>12.5</v>
@@ -3539,23 +3539,23 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="H28" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I28" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
-        <v>2.12</v>
+        <v>1.91</v>
       </c>
       <c r="O28" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="P28" t="n">
         <v>1.42</v>
@@ -3566,55 +3566,55 @@
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="n">
-        <v>7.9</v>
+        <v>8.75</v>
       </c>
       <c r="U28" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="V28" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="W28" t="n">
         <v>40</v>
       </c>
       <c r="X28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y28" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="Z28" t="n">
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA28" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="AB28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI28" t="n">
         <v>13</v>
       </c>
-      <c r="AC28" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>500</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AJ28" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
@@ -3783,7 +3783,7 @@
         <v>1.02</v>
       </c>
       <c r="K30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L30" t="n">
         <v>1.13</v>
@@ -4214,16 +4214,16 @@
         <v>17</v>
       </c>
       <c r="L34" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M34" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N34" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O34" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P34" t="n">
         <v>1.29</v>
@@ -4321,19 +4321,19 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H35" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I35" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="J35" t="n">
         <v>1.03</v>
       </c>
       <c r="K35" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L35" t="n">
         <v>1.18</v>
@@ -4342,10 +4342,10 @@
         <v>4.5</v>
       </c>
       <c r="N35" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="O35" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P35" t="n">
         <v>1.29</v>
@@ -4363,46 +4363,46 @@
         <v>19</v>
       </c>
       <c r="U35" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="V35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="W35" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="X35" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Y35" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Z35" t="n">
         <v>15</v>
       </c>
       <c r="AA35" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC35" t="n">
         <v>51</v>
       </c>
       <c r="AD35" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE35" t="n">
         <v>8</v>
       </c>
       <c r="AF35" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG35" t="n">
         <v>8.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI35" t="n">
         <v>11</v>
@@ -4586,10 +4586,10 @@
         <v>3.75</v>
       </c>
       <c r="N37" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O37" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="P37" t="n">
         <v>1.36</v>
@@ -4830,10 +4830,10 @@
         <v>2.25</v>
       </c>
       <c r="N39" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="O39" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P39" t="n">
         <v>1.62</v>
@@ -5115,19 +5115,19 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="H42" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J42" t="n">
         <v>1.01</v>
       </c>
       <c r="K42" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L42" t="n">
         <v>1.06</v>
@@ -5136,10 +5136,10 @@
         <v>8</v>
       </c>
       <c r="N42" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="O42" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P42" t="n">
         <v>1.14</v>
@@ -5148,16 +5148,16 @@
         <v>5</v>
       </c>
       <c r="R42" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S42" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T42" t="n">
         <v>15</v>
       </c>
       <c r="U42" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V42" t="n">
         <v>12</v>
@@ -5178,13 +5178,13 @@
         <v>21</v>
       </c>
       <c r="AB42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC42" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD42" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="AE42" t="n">
         <v>41</v>
@@ -5193,13 +5193,13 @@
         <v>67</v>
       </c>
       <c r="AG42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH42" t="n">
         <v>151</v>
       </c>
       <c r="AI42" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AJ42" t="n">
         <v>51</v>
@@ -5362,24 +5362,24 @@
         <v>3.25</v>
       </c>
       <c r="H44" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I44" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="M44" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="N44" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O44" t="n">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="P44" t="n">
         <v>1.4</v>
@@ -5388,61 +5388,61 @@
         <v>2.55</v>
       </c>
       <c r="R44" t="n">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="S44" t="n">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="T44" t="n">
-        <v>8.75</v>
+        <v>11.25</v>
       </c>
       <c r="U44" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="V44" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="W44" t="n">
         <v>45</v>
       </c>
       <c r="X44" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="Y44" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="Z44" t="n">
-        <v>8.25</v>
+        <v>10.75</v>
       </c>
       <c r="AA44" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="AB44" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC44" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="AD44" t="n">
-        <v>600</v>
+        <v>350</v>
       </c>
       <c r="AE44" t="n">
-        <v>7.1</v>
+        <v>8</v>
       </c>
       <c r="AF44" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AG44" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AH44" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI44" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AJ44" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
@@ -5477,41 +5477,41 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H45" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I45" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="M45" t="n">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="N45" t="n">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="O45" t="n">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="S45" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="T45" t="n">
-        <v>8.75</v>
+        <v>10.25</v>
       </c>
       <c r="U45" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V45" t="n">
         <v>9.75</v>
@@ -5520,31 +5520,31 @@
         <v>28</v>
       </c>
       <c r="X45" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Z45" t="n">
-        <v>10.25</v>
+        <v>13</v>
       </c>
       <c r="AA45" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="AB45" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC45" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AD45" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="AE45" t="n">
-        <v>8.5</v>
+        <v>9.75</v>
       </c>
       <c r="AF45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG45" t="n">
         <v>9.5</v>
@@ -5553,10 +5553,10 @@
         <v>25</v>
       </c>
       <c r="AI45" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ45" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46">
@@ -5823,90 +5823,90 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="H48" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="M48" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N48" t="n">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="O48" t="n">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="P48" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="R48" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="S48" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="T48" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="U48" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V48" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W48" t="n">
         <v>14.5</v>
       </c>
       <c r="X48" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="Y48" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Z48" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="AA48" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AB48" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AC48" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AD48" t="n">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="AE48" t="n">
-        <v>10.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF48" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG48" t="n">
         <v>13.5</v>
       </c>
       <c r="AH48" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI48" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ48" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49">
@@ -6411,7 +6411,7 @@
         <v>3.3</v>
       </c>
       <c r="I53" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J53" t="n">
         <v>1.06</v>
@@ -6420,7 +6420,7 @@
         <v>7.4</v>
       </c>
       <c r="L53" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M53" t="n">
         <v>3.4</v>
@@ -6444,10 +6444,10 @@
         <v>2.1</v>
       </c>
       <c r="T53" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U53" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="V53" t="n">
         <v>8.5</v>
@@ -6459,7 +6459,7 @@
         <v>16.5</v>
       </c>
       <c r="Y53" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z53" t="n">
         <v>7.4</v>
@@ -6477,10 +6477,10 @@
         <v>350</v>
       </c>
       <c r="AE53" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AF53" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG53" t="n">
         <v>11</v>
@@ -6489,10 +6489,10 @@
         <v>45</v>
       </c>
       <c r="AI53" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ53" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
@@ -6658,10 +6658,10 @@
         <v>5</v>
       </c>
       <c r="J55" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K55" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L55" t="n">
         <v>1.36</v>
@@ -6670,10 +6670,10 @@
         <v>3</v>
       </c>
       <c r="N55" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O55" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P55" t="n">
         <v>1.44</v>
@@ -7030,16 +7030,16 @@
         <v>11</v>
       </c>
       <c r="L58" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M58" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N58" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O58" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="P58" t="n">
         <v>1.36</v>
@@ -7137,92 +7137,92 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="H59" t="n">
-        <v>2.95</v>
+        <v>2.67</v>
       </c>
       <c r="I59" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="J59" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="K59" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L59" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="N59" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S59" t="n">
         <v>1.55</v>
       </c>
-      <c r="M59" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="N59" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="O59" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P59" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R59" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="S59" t="n">
-        <v>1.53</v>
-      </c>
       <c r="T59" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="U59" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V59" t="n">
         <v>12.5</v>
       </c>
       <c r="W59" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="X59" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Y59" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Z59" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="AA59" t="n">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="AB59" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AC59" t="n">
         <v>150</v>
       </c>
       <c r="AD59" t="inlineStr"/>
       <c r="AE59" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AF59" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="AG59" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AH59" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AI59" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ59" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60">

--- a/Jogos_da_Semana_FlashScore_2025-05-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-12.xlsx
@@ -674,10 +674,10 @@
         <v>1.67</v>
       </c>
       <c r="P2" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="R2" t="n">
         <v>1.91</v>
@@ -796,7 +796,7 @@
         <v>2.06</v>
       </c>
       <c r="P3" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q3" t="n">
         <v>3.25</v>
@@ -900,13 +900,13 @@
         <v>1.85</v>
       </c>
       <c r="J4" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K4" t="n">
         <v>17</v>
       </c>
       <c r="L4" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="M4" t="n">
         <v>4.5</v>
@@ -924,10 +924,10 @@
         <v>3.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T4" t="n">
         <v>15</v>
@@ -951,13 +951,13 @@
         <v>17</v>
       </c>
       <c r="AA4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD4" t="n">
         <v>126</v>
@@ -978,7 +978,7 @@
         <v>13</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -1022,22 +1022,22 @@
         <v>11</v>
       </c>
       <c r="J5" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K5" t="n">
         <v>11</v>
       </c>
       <c r="L5" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="M5" t="n">
         <v>3.4</v>
       </c>
       <c r="N5" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="O5" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="P5" t="n">
         <v>1.4</v>
@@ -1142,13 +1142,13 @@
         <v>3.3</v>
       </c>
       <c r="J6" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="K6" t="n">
         <v>6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="M6" t="n">
         <v>2.2</v>
@@ -3206,13 +3206,13 @@
         <v>3.2</v>
       </c>
       <c r="J25" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="K25" t="n">
         <v>15</v>
       </c>
       <c r="L25" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
@@ -3221,7 +3221,7 @@
         <v>1.57</v>
       </c>
       <c r="O25" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P25" t="n">
         <v>1.29</v>
@@ -3429,10 +3429,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="H27" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I27" t="n">
         <v>1.65</v>
@@ -3448,57 +3448,57 @@
         <v>1.55</v>
       </c>
       <c r="P27" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="U27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V27" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="W27" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="X27" t="n">
         <v>45</v>
       </c>
       <c r="Y27" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Z27" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD27" t="n">
         <v>450</v>
       </c>
       <c r="AE27" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="AF27" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AG27" t="n">
         <v>7.2</v>
       </c>
       <c r="AH27" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AI27" t="n">
         <v>12.5</v>
@@ -3539,13 +3539,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="H28" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I28" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -3566,19 +3566,19 @@
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="U28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V28" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="W28" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X28" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y28" t="n">
         <v>30</v>
@@ -3590,7 +3590,7 @@
         <v>5.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AC28" t="n">
         <v>50</v>
@@ -3599,19 +3599,19 @@
         <v>350</v>
       </c>
       <c r="AE28" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AF28" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="AG28" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AH28" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI28" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>13</v>
       </c>
       <c r="AJ28" t="n">
         <v>22</v>
@@ -4014,36 +4014,86 @@
           <t>Raja Casablanca</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="H32" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.22</v>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2.05</v>
+      </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
+      <c r="R32" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T32" t="n">
+        <v>27</v>
+      </c>
+      <c r="U32" t="n">
+        <v>90</v>
+      </c>
+      <c r="V32" t="n">
+        <v>40</v>
+      </c>
+      <c r="W32" t="n">
+        <v>450</v>
+      </c>
+      <c r="X32" t="n">
+        <v>200</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>175</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>175</v>
+      </c>
       <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr"/>
-      <c r="AH32" t="inlineStr"/>
-      <c r="AI32" t="inlineStr"/>
-      <c r="AJ32" t="inlineStr"/>
+      <c r="AE32" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4199,13 +4249,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H34" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J34" t="n">
         <v>1.03</v>
@@ -4232,16 +4282,16 @@
         <v>3.5</v>
       </c>
       <c r="R34" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S34" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T34" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U34" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V34" t="n">
         <v>8.5</v>
@@ -4256,19 +4306,19 @@
         <v>21</v>
       </c>
       <c r="Z34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA34" t="n">
         <v>8</v>
       </c>
       <c r="AB34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC34" t="n">
         <v>41</v>
       </c>
       <c r="AD34" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE34" t="n">
         <v>15</v>
@@ -4342,7 +4392,7 @@
         <v>4.5</v>
       </c>
       <c r="N35" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O35" t="n">
         <v>2.3</v>
@@ -4464,10 +4514,10 @@
         <v>3.5</v>
       </c>
       <c r="N36" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O36" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="P36" t="n">
         <v>1.36</v>
@@ -4830,10 +4880,10 @@
         <v>2.25</v>
       </c>
       <c r="N39" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="O39" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P39" t="n">
         <v>1.62</v>
@@ -5115,7 +5165,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="H42" t="n">
         <v>10</v>
@@ -5136,10 +5186,10 @@
         <v>8</v>
       </c>
       <c r="N42" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="O42" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P42" t="n">
         <v>1.14</v>
@@ -5181,10 +5231,10 @@
         <v>29</v>
       </c>
       <c r="AC42" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD42" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AE42" t="n">
         <v>41</v>
@@ -5193,7 +5243,7 @@
         <v>67</v>
       </c>
       <c r="AG42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH42" t="n">
         <v>151</v>
@@ -5246,10 +5296,10 @@
         <v>1.48</v>
       </c>
       <c r="J43" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K43" t="n">
-        <v>17</v>
+        <v>10.5</v>
       </c>
       <c r="L43" t="n">
         <v>1.17</v>
@@ -5359,27 +5409,27 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.25</v>
+        <v>2.87</v>
       </c>
       <c r="H44" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I44" t="n">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M44" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="N44" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="O44" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="P44" t="n">
         <v>1.4</v>
@@ -5391,31 +5441,31 @@
         <v>1.62</v>
       </c>
       <c r="S44" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="T44" t="n">
-        <v>11.25</v>
+        <v>9.75</v>
       </c>
       <c r="U44" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="V44" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="W44" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="X44" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y44" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z44" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AA44" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB44" t="n">
         <v>12.5</v>
@@ -5427,22 +5477,22 @@
         <v>350</v>
       </c>
       <c r="AE44" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF44" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AG44" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH44" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AI44" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AJ44" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
@@ -5477,13 +5527,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="H45" t="n">
         <v>3.6</v>
       </c>
       <c r="I45" t="n">
-        <v>2.37</v>
+        <v>2.65</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -5502,31 +5552,31 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S45" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="T45" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="U45" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="V45" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="W45" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="X45" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z45" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA45" t="n">
         <v>7.1</v>
@@ -5541,22 +5591,22 @@
         <v>350</v>
       </c>
       <c r="AE45" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AF45" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AG45" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH45" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AI45" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ45" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46">
@@ -5823,27 +5873,27 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="H48" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I48" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M48" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="N48" t="n">
         <v>1.78</v>
       </c>
       <c r="O48" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="P48" t="n">
         <v>1.4</v>
@@ -5852,58 +5902,58 @@
         <v>2.52</v>
       </c>
       <c r="R48" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S48" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="T48" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="U48" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="V48" t="n">
         <v>8.25</v>
       </c>
       <c r="W48" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="X48" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z48" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AA48" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AB48" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC48" t="n">
         <v>70</v>
       </c>
       <c r="AD48" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE48" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF48" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG48" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH48" t="n">
         <v>65</v>
       </c>
       <c r="AI48" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ48" t="n">
         <v>45</v>
@@ -6169,27 +6219,27 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="H51" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I51" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="M51" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N51" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="O51" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="P51" t="n">
         <v>1.39</v>
@@ -6198,61 +6248,61 @@
         <v>2.57</v>
       </c>
       <c r="R51" t="n">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
       <c r="S51" t="n">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="T51" t="n">
-        <v>6.2</v>
+        <v>7.7</v>
       </c>
       <c r="U51" t="n">
-        <v>7.8</v>
+        <v>9.75</v>
       </c>
       <c r="V51" t="n">
         <v>8.25</v>
       </c>
       <c r="W51" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="X51" t="n">
         <v>14.5</v>
       </c>
-      <c r="X51" t="n">
-        <v>15.5</v>
-      </c>
       <c r="Y51" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Z51" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="AA51" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB51" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC51" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AD51" t="n">
-        <v>800</v>
+        <v>450</v>
       </c>
       <c r="AE51" t="n">
         <v>11</v>
       </c>
       <c r="AF51" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AG51" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH51" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AI51" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AJ51" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52">
@@ -6423,19 +6473,19 @@
         <v>1.28</v>
       </c>
       <c r="M53" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="N53" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="O53" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="P53" t="n">
         <v>1.4</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="R53" t="n">
         <v>1.65</v>
@@ -6444,10 +6494,10 @@
         <v>2.1</v>
       </c>
       <c r="T53" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="U53" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="V53" t="n">
         <v>8.5</v>
@@ -6456,10 +6506,10 @@
         <v>21</v>
       </c>
       <c r="X53" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y53" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z53" t="n">
         <v>7.4</v>
@@ -6468,31 +6518,31 @@
         <v>6.4</v>
       </c>
       <c r="AB53" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC53" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD53" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AE53" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AF53" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AG53" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AH53" t="n">
         <v>45</v>
       </c>
       <c r="AI53" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ53" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54">
@@ -7501,25 +7551,25 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.3</v>
+        <v>2.57</v>
       </c>
       <c r="H62" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I62" t="n">
-        <v>2.67</v>
+        <v>2.42</v>
       </c>
       <c r="J62" t="n">
         <v>1.04</v>
       </c>
       <c r="K62" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="L62" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M62" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="N62" t="n">
         <v>1.62</v>
@@ -7534,37 +7584,37 @@
         <v>3.15</v>
       </c>
       <c r="R62" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="S62" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="T62" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="U62" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="V62" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="W62" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="X62" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="Y62" t="n">
         <v>23</v>
       </c>
       <c r="Z62" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA62" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AB62" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC62" t="n">
         <v>45</v>
@@ -7573,22 +7623,22 @@
         <v>250</v>
       </c>
       <c r="AE62" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF62" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG62" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH62" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AI62" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AJ62" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-05-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-12.xlsx
@@ -2343,13 +2343,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H18" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I18" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
         <v>1.06</v>
@@ -2364,37 +2364,37 @@
         <v>3.35</v>
       </c>
       <c r="N18" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="O18" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="P18" t="n">
         <v>1.42</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="R18" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S18" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="T18" t="n">
         <v>6.4</v>
       </c>
       <c r="U18" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="V18" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="W18" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="X18" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y18" t="n">
         <v>30</v>
@@ -2403,34 +2403,34 @@
         <v>7.9</v>
       </c>
       <c r="AA18" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC18" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AD18" t="n">
         <v>800</v>
       </c>
       <c r="AE18" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF18" t="n">
         <v>32</v>
       </c>
       <c r="AG18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH18" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AI18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>60</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>65</v>
       </c>
     </row>
     <row r="19">
@@ -2465,70 +2465,70 @@
         </is>
       </c>
       <c r="G19" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K19" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q19" t="n">
         <v>2.77</v>
-      </c>
-      <c r="H19" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M19" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.85</v>
       </c>
       <c r="R19" t="n">
         <v>1.8</v>
       </c>
       <c r="S19" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="T19" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="U19" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="V19" t="n">
         <v>11</v>
       </c>
       <c r="W19" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X19" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y19" t="n">
         <v>40</v>
       </c>
       <c r="Z19" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="AA19" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AB19" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC19" t="n">
         <v>80</v>
@@ -2537,16 +2537,16 @@
         <v>700</v>
       </c>
       <c r="AE19" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AF19" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG19" t="n">
         <v>10</v>
       </c>
       <c r="AH19" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI19" t="n">
         <v>22</v>
@@ -2587,13 +2587,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H20" t="n">
         <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="J20" t="n">
         <v>1.05</v>
@@ -2629,7 +2629,7 @@
         <v>8.25</v>
       </c>
       <c r="U20" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="V20" t="n">
         <v>8.75</v>
@@ -2638,16 +2638,16 @@
         <v>18</v>
       </c>
       <c r="X20" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z20" t="n">
         <v>8.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AB20" t="n">
         <v>14</v>
@@ -2659,10 +2659,10 @@
         <v>400</v>
       </c>
       <c r="AE20" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG20" t="n">
         <v>13.5</v>
@@ -2671,10 +2671,10 @@
         <v>65</v>
       </c>
       <c r="AI20" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>37</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -2831,19 +2831,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H22" t="n">
         <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J22" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L22" t="n">
         <v>1.33</v>
@@ -2852,10 +2852,10 @@
         <v>3.25</v>
       </c>
       <c r="N22" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O22" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P22" t="n">
         <v>1.44</v>
@@ -2873,16 +2873,16 @@
         <v>7.5</v>
       </c>
       <c r="U22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V22" t="n">
         <v>9.5</v>
       </c>
       <c r="W22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y22" t="n">
         <v>29</v>
@@ -2900,13 +2900,13 @@
         <v>51</v>
       </c>
       <c r="AD22" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE22" t="n">
         <v>9.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG22" t="n">
         <v>12</v>
@@ -2915,10 +2915,10 @@
         <v>34</v>
       </c>
       <c r="AI22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
@@ -3096,10 +3096,10 @@
         <v>3.4</v>
       </c>
       <c r="N24" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="P24" t="n">
         <v>1.4</v>
@@ -3206,22 +3206,22 @@
         <v>3.2</v>
       </c>
       <c r="J25" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K25" t="n">
         <v>15</v>
       </c>
       <c r="L25" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O25" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="P25" t="n">
         <v>1.29</v>
@@ -3245,7 +3245,7 @@
         <v>9</v>
       </c>
       <c r="W25" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="X25" t="n">
         <v>15</v>
@@ -3319,58 +3319,58 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I26" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="O26" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P26" t="n">
         <v>1.42</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="U26" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="V26" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="W26" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="X26" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z26" t="n">
         <v>7.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AC26" t="n">
         <v>60</v>
@@ -3379,22 +3379,22 @@
         <v>450</v>
       </c>
       <c r="AE26" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AF26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG26" t="n">
-        <v>9.5</v>
+        <v>10.75</v>
       </c>
       <c r="AH26" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AI26" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AJ26" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27">
@@ -3429,10 +3429,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="H27" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I27" t="n">
         <v>1.65</v>
@@ -3456,16 +3456,16 @@
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="U27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V27" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="W27" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="X27" t="n">
         <v>45</v>
@@ -3474,13 +3474,13 @@
         <v>50</v>
       </c>
       <c r="Z27" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AA27" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="AB27" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC27" t="n">
         <v>80</v>
@@ -3495,16 +3495,16 @@
         <v>5.8</v>
       </c>
       <c r="AG27" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AH27" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AI27" t="n">
         <v>12.5</v>
       </c>
       <c r="AJ27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
@@ -3652,16 +3652,16 @@
         <v>1.33</v>
       </c>
       <c r="H29" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I29" t="n">
         <v>8</v>
       </c>
       <c r="J29" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L29" t="n">
         <v>1.14</v>
@@ -3682,13 +3682,13 @@
         <v>3.75</v>
       </c>
       <c r="R29" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S29" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T29" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="U29" t="n">
         <v>7.5</v>
@@ -3709,10 +3709,10 @@
         <v>17</v>
       </c>
       <c r="AA29" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC29" t="n">
         <v>51</v>
@@ -3727,7 +3727,7 @@
         <v>41</v>
       </c>
       <c r="AG29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH29" t="n">
         <v>81</v>
@@ -3771,13 +3771,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="H30" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I30" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="J30" t="n">
         <v>1.02</v>
@@ -3804,13 +3804,13 @@
         <v>4</v>
       </c>
       <c r="R30" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S30" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T30" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="U30" t="n">
         <v>41</v>
@@ -3819,22 +3819,22 @@
         <v>21</v>
       </c>
       <c r="W30" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="X30" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Y30" t="n">
         <v>41</v>
       </c>
       <c r="Z30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA30" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC30" t="n">
         <v>41</v>
@@ -3843,16 +3843,16 @@
         <v>151</v>
       </c>
       <c r="AE30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF30" t="n">
         <v>8.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI30" t="n">
         <v>11</v>
@@ -3902,10 +3902,10 @@
         <v>3.9</v>
       </c>
       <c r="J31" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K31" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L31" t="n">
         <v>1.25</v>
@@ -3914,10 +3914,10 @@
         <v>3.75</v>
       </c>
       <c r="N31" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O31" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P31" t="n">
         <v>1.36</v>
@@ -4249,31 +4249,31 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I34" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J34" t="n">
         <v>1.03</v>
       </c>
       <c r="K34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L34" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N34" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O34" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="P34" t="n">
         <v>1.29</v>
@@ -4306,10 +4306,10 @@
         <v>21</v>
       </c>
       <c r="Z34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA34" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AB34" t="n">
         <v>13</v>
@@ -4371,10 +4371,10 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H35" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I35" t="n">
         <v>1.36</v>
@@ -4386,16 +4386,16 @@
         <v>17</v>
       </c>
       <c r="L35" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M35" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N35" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O35" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P35" t="n">
         <v>1.29</v>
@@ -4410,7 +4410,7 @@
         <v>1.83</v>
       </c>
       <c r="T35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U35" t="n">
         <v>41</v>
@@ -4440,7 +4440,7 @@
         <v>51</v>
       </c>
       <c r="AD35" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AE35" t="n">
         <v>8</v>
@@ -4449,7 +4449,7 @@
         <v>7</v>
       </c>
       <c r="AG35" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH35" t="n">
         <v>9</v>
@@ -5002,10 +5002,10 @@
         <v>3.5</v>
       </c>
       <c r="N40" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="O40" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="P40" t="n">
         <v>1.36</v>
@@ -5168,16 +5168,16 @@
         <v>1.13</v>
       </c>
       <c r="H42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J42" t="n">
         <v>1.01</v>
       </c>
       <c r="K42" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="L42" t="n">
         <v>1.06</v>
@@ -5228,7 +5228,7 @@
         <v>21</v>
       </c>
       <c r="AB42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC42" t="n">
         <v>67</v>
@@ -6527,7 +6527,7 @@
         <v>400</v>
       </c>
       <c r="AE53" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AF53" t="n">
         <v>17.5</v>
@@ -6542,7 +6542,7 @@
         <v>28</v>
       </c>
       <c r="AJ53" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54">
@@ -6592,7 +6592,7 @@
         <v>6.4</v>
       </c>
       <c r="L54" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M54" t="n">
         <v>2.75</v>
@@ -6616,10 +6616,10 @@
         <v>1.8</v>
       </c>
       <c r="T54" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="U54" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="V54" t="n">
         <v>9</v>
@@ -6655,7 +6655,7 @@
         <v>16.5</v>
       </c>
       <c r="AG54" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AH54" t="n">
         <v>45</v>
@@ -6699,13 +6699,13 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H55" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I55" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J55" t="n">
         <v>1.07</v>
@@ -6732,10 +6732,10 @@
         <v>2.63</v>
       </c>
       <c r="R55" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S55" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T55" t="n">
         <v>6</v>
@@ -6750,7 +6750,7 @@
         <v>13</v>
       </c>
       <c r="X55" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y55" t="n">
         <v>34</v>
@@ -6771,7 +6771,7 @@
         <v>1250</v>
       </c>
       <c r="AE55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF55" t="n">
         <v>23</v>
@@ -6964,10 +6964,10 @@
         <v>4</v>
       </c>
       <c r="N57" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O57" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P57" t="n">
         <v>1.33</v>
@@ -7187,19 +7187,19 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="H59" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="I59" t="n">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="J59" t="n">
         <v>1.14</v>
       </c>
       <c r="K59" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="L59" t="n">
         <v>1.6</v>
@@ -7214,7 +7214,7 @@
         <v>1.36</v>
       </c>
       <c r="P59" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Q59" t="n">
         <v>2.05</v>
@@ -7229,25 +7229,25 @@
         <v>6.4</v>
       </c>
       <c r="U59" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V59" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="W59" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="X59" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="Y59" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Z59" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="AA59" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AB59" t="n">
         <v>19.5</v>
@@ -7257,22 +7257,22 @@
       </c>
       <c r="AD59" t="inlineStr"/>
       <c r="AE59" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AF59" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AG59" t="n">
-        <v>10.25</v>
+        <v>11.25</v>
       </c>
       <c r="AH59" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AI59" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AJ59" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60">

--- a/Jogos_da_Semana_FlashScore_2025-05-12.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-12.xlsx
@@ -647,19 +647,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.4</v>
@@ -686,7 +686,7 @@
         <v>1.91</v>
       </c>
       <c r="T2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U2" t="n">
         <v>13</v>
@@ -698,13 +698,13 @@
         <v>29</v>
       </c>
       <c r="X2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y2" t="n">
         <v>34</v>
       </c>
       <c r="Z2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA2" t="n">
         <v>6</v>
@@ -722,13 +722,13 @@
         <v>7.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
         <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
         <v>21</v>
@@ -903,7 +903,7 @@
         <v>1.03</v>
       </c>
       <c r="K4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L4" t="n">
         <v>1.18</v>
@@ -1028,16 +1028,16 @@
         <v>11</v>
       </c>
       <c r="L5" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N5" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O5" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="P5" t="n">
         <v>1.4</v>
@@ -1142,10 +1142,10 @@
         <v>3.3</v>
       </c>
       <c r="J6" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L6" t="n">
         <v>1.62</v>
@@ -1382,10 +1382,10 @@
         <v>4.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="L8" t="n">
         <v>1.5</v>
@@ -1629,7 +1629,7 @@
         <v>1.08</v>
       </c>
       <c r="K11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.44</v>
@@ -1677,19 +1677,19 @@
         <v>7.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC11" t="n">
         <v>67</v>
       </c>
       <c r="AD11" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AE11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF11" t="n">
         <v>21</v>
@@ -1704,7 +1704,7 @@
         <v>41</v>
       </c>
       <c r="AJ11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
@@ -2840,10 +2840,10 @@
         <v>3.3</v>
       </c>
       <c r="J22" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L22" t="n">
         <v>1.33</v>
@@ -2968,16 +2968,16 @@
         <v>10</v>
       </c>
       <c r="L23" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M23" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N23" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="O23" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P23" t="n">
         <v>1.4</v>
@@ -3096,10 +3096,10 @@
         <v>3.4</v>
       </c>
       <c r="N24" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O24" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="P24" t="n">
         <v>1.4</v>
@@ -3218,10 +3218,10 @@
         <v>5</v>
       </c>
       <c r="N25" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O25" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="P25" t="n">
         <v>1.29</v>
@@ -3539,13 +3539,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H28" t="n">
         <v>3.15</v>
       </c>
       <c r="I28" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -3572,19 +3572,19 @@
         <v>15</v>
       </c>
       <c r="V28" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W28" t="n">
         <v>37</v>
       </c>
       <c r="X28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z28" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AA28" t="n">
         <v>5.5</v>
@@ -3605,7 +3605,7 @@
         <v>7.9</v>
       </c>
       <c r="AG28" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AH28" t="n">
         <v>14.5</v>
@@ -3771,19 +3771,19 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H30" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I30" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="J30" t="n">
         <v>1.02</v>
       </c>
       <c r="K30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L30" t="n">
         <v>1.13</v>
@@ -3804,10 +3804,10 @@
         <v>4</v>
       </c>
       <c r="R30" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S30" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T30" t="n">
         <v>23</v>
@@ -3819,7 +3819,7 @@
         <v>21</v>
       </c>
       <c r="W30" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="X30" t="n">
         <v>41</v>
@@ -3828,13 +3828,13 @@
         <v>41</v>
       </c>
       <c r="Z30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC30" t="n">
         <v>41</v>
@@ -3843,16 +3843,16 @@
         <v>151</v>
       </c>
       <c r="AE30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF30" t="n">
         <v>8.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI30" t="n">
         <v>11</v>
@@ -3893,13 +3893,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H31" t="n">
         <v>3.6</v>
       </c>
       <c r="I31" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J31" t="n">
         <v>1.04</v>
@@ -3920,16 +3920,16 @@
         <v>2</v>
       </c>
       <c r="P31" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q31" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R31" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T31" t="n">
         <v>8</v>
@@ -3941,22 +3941,22 @@
         <v>8.5</v>
       </c>
       <c r="W31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X31" t="n">
         <v>15</v>
       </c>
       <c r="Y31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA31" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC31" t="n">
         <v>41</v>
@@ -3965,7 +3965,7 @@
         <v>201</v>
       </c>
       <c r="AE31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF31" t="n">
         <v>21</v>
@@ -3977,7 +3977,7 @@
         <v>41</v>
       </c>
       <c r="AI31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ31" t="n">
         <v>34</v>
@@ -4015,84 +4015,84 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="H32" t="n">
         <v>5.4</v>
       </c>
       <c r="I32" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M32" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="N32" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="O32" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="S32" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T32" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="U32" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="V32" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="W32" t="n">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="X32" t="n">
+        <v>250</v>
+      </c>
+      <c r="Y32" t="n">
         <v>200</v>
       </c>
-      <c r="Y32" t="n">
-        <v>175</v>
-      </c>
       <c r="Z32" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AA32" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AB32" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC32" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="AF32" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="AG32" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AH32" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AI32" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AJ32" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33">
@@ -4383,7 +4383,7 @@
         <v>1.03</v>
       </c>
       <c r="K35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L35" t="n">
         <v>1.17</v>
@@ -4440,10 +4440,10 @@
         <v>51</v>
       </c>
       <c r="AD35" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE35" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF35" t="n">
         <v>7</v>
@@ -4458,7 +4458,7 @@
         <v>11</v>
       </c>
       <c r="AJ35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
@@ -4493,13 +4493,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H36" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I36" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="J36" t="n">
         <v>1.05</v>
@@ -4520,10 +4520,10 @@
         <v>1.85</v>
       </c>
       <c r="P36" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q36" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R36" t="n">
         <v>1.73</v>
@@ -4532,10 +4532,10 @@
         <v>2</v>
       </c>
       <c r="T36" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V36" t="n">
         <v>9.5</v>
@@ -4547,7 +4547,7 @@
         <v>19</v>
       </c>
       <c r="Y36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z36" t="n">
         <v>11</v>
@@ -4556,16 +4556,16 @@
         <v>6.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC36" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD36" t="n">
         <v>201</v>
       </c>
       <c r="AE36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF36" t="n">
         <v>15</v>
@@ -4615,13 +4615,13 @@
         </is>
       </c>
       <c r="G37" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I37" t="n">
         <v>2.7</v>
-      </c>
-      <c r="H37" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2.63</v>
       </c>
       <c r="J37" t="n">
         <v>1.05</v>
@@ -4648,10 +4648,10 @@
         <v>3</v>
       </c>
       <c r="R37" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S37" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T37" t="n">
         <v>9.5</v>
@@ -4669,16 +4669,16 @@
         <v>21</v>
       </c>
       <c r="Y37" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z37" t="n">
         <v>11</v>
       </c>
       <c r="AA37" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC37" t="n">
         <v>41</v>
@@ -4687,7 +4687,7 @@
         <v>151</v>
       </c>
       <c r="AE37" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF37" t="n">
         <v>13</v>
@@ -4859,13 +4859,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H39" t="n">
         <v>2.9</v>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J39" t="n">
         <v>1.13</v>
@@ -4901,7 +4901,7 @@
         <v>6</v>
       </c>
       <c r="U39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V39" t="n">
         <v>11</v>
@@ -4937,7 +4937,7 @@
         <v>13</v>
       </c>
       <c r="AG39" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH39" t="n">
         <v>34</v>
@@ -4946,7 +4946,7 @@
         <v>34</v>
       </c>
       <c r="AJ39" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40">
@@ -5014,7 +5014,7 @@
         <v>3</v>
       </c>
       <c r="R40" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S40" t="n">
         <v>2</v>
@@ -5177,7 +5177,7 @@
         <v>1.01</v>
       </c>
       <c r="K42" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="L42" t="n">
         <v>1.06</v>
@@ -5198,10 +5198,10 @@
         <v>5</v>
       </c>
       <c r="R42" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S42" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T42" t="n">
         <v>15</v>
@@ -5320,7 +5320,7 @@
         <v>3.5</v>
       </c>
       <c r="R43" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="S43" t="n">
         <v>2</v>
@@ -5527,13 +5527,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H45" t="n">
         <v>3.6</v>
       </c>
       <c r="I45" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -5552,13 +5552,13 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S45" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="T45" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="U45" t="n">
         <v>12.5</v>
@@ -5567,7 +5567,7 @@
         <v>9.25</v>
       </c>
       <c r="W45" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X45" t="n">
         <v>17.5</v>
@@ -5576,7 +5576,7 @@
         <v>25</v>
       </c>
       <c r="Z45" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA45" t="n">
         <v>7.1</v>
@@ -5600,13 +5600,13 @@
         <v>10</v>
       </c>
       <c r="AH45" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI45" t="n">
         <v>20</v>
       </c>
       <c r="AJ45" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
@@ -5759,86 +5759,86 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="H47" t="n">
         <v>5.1</v>
       </c>
       <c r="I47" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="M47" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="N47" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O47" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="S47" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="T47" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="U47" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="V47" t="n">
         <v>9.25</v>
       </c>
       <c r="W47" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="X47" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y47" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z47" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA47" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AB47" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC47" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AD47" t="n">
         <v>900</v>
       </c>
       <c r="AE47" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AF47" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>50</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>800</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>250</v>
+      </c>
+      <c r="AJ47" t="n">
         <v>175</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>55</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>600</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>300</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>200</v>
       </c>
     </row>
     <row r="48">
@@ -5873,27 +5873,27 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="H48" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I48" t="n">
-        <v>4.15</v>
+        <v>3.75</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M48" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="N48" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="O48" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P48" t="n">
         <v>1.4</v>
@@ -5905,31 +5905,31 @@
         <v>1.75</v>
       </c>
       <c r="S48" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="T48" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="U48" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="V48" t="n">
         <v>8.25</v>
       </c>
       <c r="W48" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="X48" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y48" t="n">
         <v>26</v>
       </c>
       <c r="Z48" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AA48" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AB48" t="n">
         <v>15.5</v>
@@ -5941,22 +5941,22 @@
         <v>600</v>
       </c>
       <c r="AE48" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AF48" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AG48" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH48" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AI48" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ48" t="n">
         <v>40</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="49">
@@ -5991,10 +5991,10 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="H49" t="n">
-        <v>4.75</v>
+        <v>4.65</v>
       </c>
       <c r="I49" t="n">
         <v>13</v>
@@ -6002,51 +6002,51 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M49" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="N49" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O49" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S49" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="T49" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="U49" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="V49" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W49" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="X49" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="Y49" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Z49" t="n">
         <v>10.75</v>
       </c>
       <c r="AA49" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AB49" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AC49" t="n">
         <v>150</v>
@@ -6056,7 +6056,7 @@
         <v>30</v>
       </c>
       <c r="AF49" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AG49" t="n">
         <v>40</v>
@@ -6065,7 +6065,7 @@
         <v>600</v>
       </c>
       <c r="AI49" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AJ49" t="n">
         <v>150</v>
@@ -6821,13 +6821,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="H56" t="n">
         <v>3.4</v>
       </c>
       <c r="I56" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J56" t="n">
         <v>1.05</v>
@@ -6836,10 +6836,10 @@
         <v>11</v>
       </c>
       <c r="L56" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M56" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N56" t="n">
         <v>2</v>
@@ -6854,31 +6854,31 @@
         <v>2.75</v>
       </c>
       <c r="R56" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S56" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T56" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V56" t="n">
         <v>9.5</v>
       </c>
       <c r="W56" t="n">
+        <v>23</v>
+      </c>
+      <c r="X56" t="n">
         <v>21</v>
-      </c>
-      <c r="X56" t="n">
-        <v>19</v>
       </c>
       <c r="Y56" t="n">
         <v>29</v>
       </c>
       <c r="Z56" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA56" t="n">
         <v>6.5</v>
@@ -6890,25 +6890,25 @@
         <v>51</v>
       </c>
       <c r="AD56" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE56" t="n">
         <v>9</v>
       </c>
       <c r="AF56" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG56" t="n">
         <v>11</v>
       </c>
       <c r="AH56" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI56" t="n">
         <v>23</v>
       </c>
       <c r="AJ56" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57">
@@ -6964,10 +6964,10 @@
         <v>4</v>
       </c>
       <c r="N57" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O57" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P57" t="n">
         <v>1.33</v>
@@ -7551,13 +7551,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="H62" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I62" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="J62" t="n">
         <v>1.04</v>
@@ -7578,31 +7578,31 @@
         <v>2.15</v>
       </c>
       <c r="P62" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="Q62" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="R62" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S62" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="T62" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="U62" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="V62" t="n">
         <v>9.75</v>
       </c>
       <c r="W62" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X62" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y62" t="n">
         <v>23</v>
@@ -7611,13 +7611,13 @@
         <v>8.5</v>
       </c>
       <c r="AA62" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AB62" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AC62" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD62" t="n">
         <v>250</v>
@@ -7629,13 +7629,13 @@
         <v>13.5</v>
       </c>
       <c r="AG62" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH62" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI62" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AJ62" t="n">
         <v>23</v>
